--- a/nodes_source_analyses/households/households_flexibility_p2h_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_flexibility_p2h_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -239,9 +247,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -481,6 +486,10 @@
   <si>
     <t>Brochure</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -492,7 +501,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,11 +647,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1317,20 +1321,20 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1376,7 +1380,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1445,10 +1449,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,7 +1464,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1582,46 +1586,46 @@
     <xf numFmtId="2" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="280">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1907,80 +1911,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2138,7 +2077,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2577,51 +2516,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="48.75" style="15" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="15"/>
+    <col min="1" max="1" width="3.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1">
+    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -2630,17 +2569,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="57" t="s">
         <v>51</v>
@@ -2648,13 +2587,13 @@
       <c r="C9" s="58"/>
       <c r="D9" s="80"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60"/>
       <c r="D10" s="81"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="59" t="s">
         <v>52</v>
@@ -2664,7 +2603,7 @@
       </c>
       <c r="D11" s="81"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="59"/>
       <c r="C12" s="14" t="s">
@@ -2672,7 +2611,7 @@
       </c>
       <c r="D12" s="81"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="59"/>
       <c r="C13" s="62" t="s">
@@ -2680,7 +2619,7 @@
       </c>
       <c r="D13" s="81"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60" t="s">
@@ -2688,13 +2627,13 @@
       </c>
       <c r="D14" s="81"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
       <c r="D15" s="81"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="59" t="s">
         <v>57</v>
@@ -2704,7 +2643,7 @@
       </c>
       <c r="D16" s="81"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="59"/>
       <c r="C17" s="64" t="s">
@@ -2712,7 +2651,7 @@
       </c>
       <c r="D17" s="81"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="59"/>
       <c r="C18" s="65" t="s">
@@ -2720,7 +2659,7 @@
       </c>
       <c r="D18" s="81"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="59"/>
       <c r="C19" s="66" t="s">
@@ -2728,7 +2667,7 @@
       </c>
       <c r="D19" s="81"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
@@ -2736,7 +2675,7 @@
       </c>
       <c r="D20" s="81"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="67"/>
       <c r="C21" s="69" t="s">
@@ -2744,7 +2683,7 @@
       </c>
       <c r="D21" s="81"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="67"/>
       <c r="C22" s="70" t="s">
@@ -2752,14 +2691,14 @@
       </c>
       <c r="D22" s="81"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="67"/>
       <c r="C23" s="71" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="81"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="82"/>
       <c r="C24" s="83"/>
       <c r="D24" s="84"/>
@@ -2767,77 +2706,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="92" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="92" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="92" customWidth="1"/>
     <col min="3" max="3" width="46" style="92" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="92" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="92" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="92" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="92" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="92" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="92" customWidth="1"/>
     <col min="7" max="7" width="45" style="92" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="92" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="92" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="92" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="92"/>
+    <col min="8" max="8" width="5.140625" style="92" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="92" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="92" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" customHeight="1">
+    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="170"/>
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
       <c r="F1" s="93"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1">
-      <c r="B2" s="171" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
+    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="172" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
     </row>
-    <row r="3" spans="1:11" ht="16" customHeight="1">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="177"/>
       <c r="F3" s="93"/>
       <c r="G3" s="93"/>
     </row>
-    <row r="4" spans="1:11" ht="16" customHeight="1">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+    <row r="4" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="178"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
       <c r="F4" s="93"/>
       <c r="G4" s="93"/>
     </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="93"/>
     </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1">
+    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="94"/>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
@@ -2848,7 +2782,7 @@
       <c r="I6" s="95"/>
       <c r="J6" s="96"/>
     </row>
-    <row r="7" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="97"/>
       <c r="C7" s="98" t="s">
         <v>22</v>
@@ -2869,7 +2803,7 @@
       </c>
       <c r="J7" s="100"/>
     </row>
-    <row r="8" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="102"/>
       <c r="C8" s="103"/>
       <c r="D8" s="104"/>
@@ -2880,10 +2814,10 @@
       <c r="I8" s="103"/>
       <c r="J8" s="105"/>
     </row>
-    <row r="9" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="102"/>
       <c r="C9" s="103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="103"/>
@@ -2893,13 +2827,13 @@
       <c r="I9" s="103"/>
       <c r="J9" s="105"/>
     </row>
-    <row r="10" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="102"/>
       <c r="C10" s="124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="150">
         <f>'Research data'!G7</f>
@@ -2908,14 +2842,14 @@
       <c r="F10" s="108"/>
       <c r="G10" s="109"/>
       <c r="I10" s="158" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="105"/>
     </row>
-    <row r="11" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="102"/>
       <c r="C11" s="124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="111" t="s">
         <v>44</v>
@@ -2927,14 +2861,14 @@
       <c r="F11" s="108"/>
       <c r="G11" s="109"/>
       <c r="I11" s="158" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="105"/>
     </row>
-    <row r="12" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="102"/>
       <c r="C12" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="111" t="s">
         <v>4</v>
@@ -2945,11 +2879,11 @@
       <c r="F12" s="108"/>
       <c r="G12" s="109"/>
       <c r="I12" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J12" s="105"/>
     </row>
-    <row r="13" spans="1:11" ht="16" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="110"/>
       <c r="C13" s="108" t="s">
         <v>24</v>
@@ -2963,12 +2897,12 @@
       <c r="F13" s="108"/>
       <c r="G13" s="108"/>
       <c r="I13" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J13" s="112"/>
       <c r="K13" s="93"/>
     </row>
-    <row r="14" spans="1:11" ht="16" customHeight="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="110"/>
       <c r="C14" s="108" t="s">
         <v>26</v>
@@ -2982,18 +2916,18 @@
       <c r="F14" s="108"/>
       <c r="G14" s="108"/>
       <c r="I14" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" s="112"/>
       <c r="K14" s="93"/>
     </row>
-    <row r="15" spans="1:11" ht="16" customHeight="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="110"/>
       <c r="C15" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="125">
         <v>0</v>
@@ -3001,12 +2935,12 @@
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
       <c r="I15" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="112"/>
       <c r="K15" s="93"/>
     </row>
-    <row r="16" spans="1:11" ht="16" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="110"/>
       <c r="C16" s="108" t="s">
         <v>8</v>
@@ -3020,12 +2954,12 @@
       <c r="F16" s="108"/>
       <c r="G16" s="108"/>
       <c r="I16" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="112"/>
       <c r="K16" s="93"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="110"/>
       <c r="C17" s="108" t="s">
         <v>29</v>
@@ -3039,12 +2973,12 @@
       <c r="F17" s="108"/>
       <c r="G17" s="108"/>
       <c r="I17" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="112"/>
       <c r="K17" s="93"/>
     </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="110"/>
       <c r="C18" s="108" t="s">
         <v>30</v>
@@ -3058,12 +2992,12 @@
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="I18" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" s="112"/>
       <c r="K18" s="93"/>
     </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="110"/>
       <c r="C19" s="108" t="s">
         <v>31</v>
@@ -3077,11 +3011,11 @@
       <c r="F19" s="108"/>
       <c r="G19" s="108"/>
       <c r="I19" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" s="112"/>
     </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="110"/>
       <c r="C20" s="108" t="s">
         <v>32</v>
@@ -3095,11 +3029,11 @@
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
       <c r="I20" s="158" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="112"/>
     </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="110"/>
       <c r="C21" s="114" t="s">
         <v>45</v>
@@ -3113,11 +3047,11 @@
       <c r="F21" s="108"/>
       <c r="G21" s="108"/>
       <c r="I21" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" s="112"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="110"/>
       <c r="C22" s="114" t="s">
         <v>46</v>
@@ -3131,11 +3065,11 @@
       <c r="F22" s="108"/>
       <c r="G22" s="108"/>
       <c r="I22" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" s="112"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="110"/>
       <c r="C23" s="114" t="s">
         <v>47</v>
@@ -3149,11 +3083,11 @@
       <c r="F23" s="108"/>
       <c r="G23" s="108"/>
       <c r="I23" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="112"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="110"/>
       <c r="C24" s="114" t="s">
         <v>48</v>
@@ -3167,17 +3101,17 @@
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
       <c r="I24" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="112"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="110"/>
       <c r="C25" s="114" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="125">
         <v>0</v>
@@ -3185,11 +3119,11 @@
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
       <c r="I25" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1">
+    <row r="26" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="110"/>
       <c r="C26" s="115"/>
       <c r="D26" s="116"/>
@@ -3199,10 +3133,10 @@
       <c r="I26" s="93"/>
       <c r="J26" s="112"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="110"/>
       <c r="C27" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="116"/>
       <c r="E27" s="117"/>
@@ -3211,7 +3145,7 @@
       <c r="I27" s="93"/>
       <c r="J27" s="112"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="110"/>
       <c r="C28" s="108" t="s">
         <v>33</v>
@@ -3226,11 +3160,11 @@
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
       <c r="I28" s="158" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J28" s="112"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="110"/>
       <c r="C29" s="108" t="s">
         <v>34</v>
@@ -3244,11 +3178,11 @@
       <c r="F29" s="108"/>
       <c r="G29" s="124"/>
       <c r="I29" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J29" s="112"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="110"/>
       <c r="C30" s="108" t="s">
         <v>10</v>
@@ -3262,11 +3196,11 @@
       <c r="F30" s="108"/>
       <c r="G30" s="124"/>
       <c r="I30" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="110"/>
       <c r="C31" s="108" t="s">
         <v>35</v>
@@ -3280,11 +3214,11 @@
       <c r="F31" s="108"/>
       <c r="G31" s="124"/>
       <c r="I31" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="112"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="110"/>
       <c r="C32" s="108" t="s">
         <v>36</v>
@@ -3298,11 +3232,11 @@
       <c r="F32" s="108"/>
       <c r="G32" s="124"/>
       <c r="I32" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" s="112"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="110"/>
       <c r="C33" s="108" t="s">
         <v>37</v>
@@ -3316,11 +3250,11 @@
       <c r="F33" s="108"/>
       <c r="G33" s="108"/>
       <c r="I33" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33" s="112"/>
     </row>
-    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="110"/>
       <c r="C34" s="108" t="s">
         <v>38</v>
@@ -3334,11 +3268,11 @@
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
       <c r="I34" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="110"/>
       <c r="C35" s="108" t="s">
         <v>41</v>
@@ -3352,11 +3286,11 @@
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="I35" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J35" s="112"/>
     </row>
-    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="110"/>
       <c r="C36" s="108" t="s">
         <v>28</v>
@@ -3370,11 +3304,11 @@
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
       <c r="I36" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J36" s="112"/>
     </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1">
+    <row r="37" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="110"/>
       <c r="C37" s="108"/>
       <c r="D37" s="111"/>
@@ -3384,7 +3318,7 @@
       <c r="I37" s="93"/>
       <c r="J37" s="112"/>
     </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="110"/>
       <c r="C38" s="103" t="s">
         <v>7</v>
@@ -3396,7 +3330,7 @@
       <c r="I38" s="93"/>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="110"/>
       <c r="C39" s="108" t="s">
         <v>27</v>
@@ -3410,11 +3344,11 @@
       <c r="F39" s="108"/>
       <c r="G39" s="108"/>
       <c r="I39" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J39" s="112"/>
     </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="110"/>
       <c r="C40" s="108" t="s">
         <v>39</v>
@@ -3428,11 +3362,11 @@
       <c r="F40" s="108"/>
       <c r="G40" s="108"/>
       <c r="I40" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J40" s="112"/>
     </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="110"/>
       <c r="C41" s="108" t="s">
         <v>40</v>
@@ -3446,11 +3380,11 @@
       <c r="F41" s="108"/>
       <c r="G41" s="108"/>
       <c r="I41" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J41" s="112"/>
     </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="110"/>
       <c r="C42" s="108" t="s">
         <v>25</v>
@@ -3464,14 +3398,14 @@
       <c r="F42" s="108"/>
       <c r="G42" s="108"/>
       <c r="I42" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J42" s="112"/>
     </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="110"/>
       <c r="C43" s="120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="111"/>
       <c r="E43" s="118">
@@ -3480,14 +3414,14 @@
       <c r="F43" s="108"/>
       <c r="G43" s="108"/>
       <c r="I43" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J43" s="112"/>
     </row>
-    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="110"/>
       <c r="C44" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="111"/>
       <c r="E44" s="118">
@@ -3496,14 +3430,14 @@
       <c r="F44" s="108"/>
       <c r="G44" s="108"/>
       <c r="I44" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J44" s="112"/>
     </row>
-    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="110"/>
       <c r="C45" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="111"/>
       <c r="E45" s="118">
@@ -3512,14 +3446,14 @@
       <c r="F45" s="108"/>
       <c r="G45" s="108"/>
       <c r="I45" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J45" s="112"/>
     </row>
-    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="110"/>
       <c r="C46" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="111"/>
       <c r="E46" s="118">
@@ -3528,14 +3462,14 @@
       <c r="F46" s="108"/>
       <c r="G46" s="108"/>
       <c r="I46" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J46" s="112"/>
     </row>
-    <row r="47" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="110"/>
       <c r="C47" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="111"/>
       <c r="E47" s="118">
@@ -3544,11 +3478,11 @@
       <c r="F47" s="108"/>
       <c r="G47" s="108"/>
       <c r="I47" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J47" s="112"/>
     </row>
-    <row r="48" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="48" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="121"/>
       <c r="C48" s="122"/>
       <c r="D48" s="122"/>
@@ -3565,43 +3499,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3616,25 +3513,24 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="40" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="40" customWidth="1"/>
     <col min="8" max="8" width="4" style="40" customWidth="1"/>
     <col min="9" max="9" width="16" style="40" customWidth="1"/>
     <col min="10" max="10" width="3" style="41" customWidth="1"/>
     <col min="11" max="11" width="60" style="40" customWidth="1"/>
-    <col min="12" max="12" width="2.125" style="40" customWidth="1"/>
-    <col min="13" max="16384" width="10.625" style="40"/>
+    <col min="12" max="12" width="2.140625" style="40" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="42"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -3647,10 +3543,10 @@
       <c r="K2" s="43"/>
       <c r="L2" s="85"/>
     </row>
-    <row r="3" spans="2:12" s="17" customFormat="1">
+    <row r="3" spans="2:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16"/>
       <c r="C3" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3664,11 +3560,11 @@
       <c r="I3" s="74"/>
       <c r="J3" s="38"/>
       <c r="K3" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="86"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -3681,10 +3577,10 @@
       <c r="K4" s="9"/>
       <c r="L4" s="87"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -3696,7 +3592,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="87"/>
     </row>
-    <row r="6" spans="2:12" ht="16" thickBot="1">
+    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3709,15 +3605,15 @@
       <c r="K6" s="39"/>
       <c r="L6" s="87"/>
     </row>
-    <row r="7" spans="2:12" ht="16" thickBot="1">
+    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="147">
         <f>Notes!E37*Notes!E64*(Notes!E41-Notes!E68)*Notes!E74</f>
@@ -3729,10 +3625,10 @@
       <c r="K7" s="39"/>
       <c r="L7" s="87"/>
     </row>
-    <row r="8" spans="2:12" ht="16" thickBot="1">
+    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="144" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
@@ -3749,10 +3645,10 @@
       <c r="K8" s="39"/>
       <c r="L8" s="87"/>
     </row>
-    <row r="9" spans="2:12" ht="16" thickBot="1">
+    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="152" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
@@ -3769,7 +3665,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="87"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="45"/>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
@@ -3782,7 +3678,7 @@
       <c r="K10" s="39"/>
       <c r="L10" s="87"/>
     </row>
-    <row r="11" spans="2:12" ht="16" thickBot="1">
+    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="23" t="s">
         <v>7</v>
@@ -3797,10 +3693,10 @@
       <c r="K11" s="24"/>
       <c r="L11" s="87"/>
     </row>
-    <row r="12" spans="2:12" ht="16" thickBot="1">
+    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45"/>
       <c r="C12" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -3814,10 +3710,10 @@
       <c r="K12" s="24"/>
       <c r="L12" s="87"/>
     </row>
-    <row r="13" spans="2:12" ht="16" thickBot="1">
+    <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
       <c r="C13" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -3831,7 +3727,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="87"/>
     </row>
-    <row r="14" spans="2:12" ht="16" thickBot="1">
+    <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
       <c r="C14" s="56" t="s">
         <v>5</v>
@@ -3848,7 +3744,7 @@
       <c r="K14" s="75"/>
       <c r="L14" s="87"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="45"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -3861,10 +3757,10 @@
       <c r="K15" s="39"/>
       <c r="L15" s="87"/>
     </row>
-    <row r="16" spans="2:12" ht="16" thickBot="1">
+    <row r="16" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="45"/>
       <c r="C16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3876,10 +3772,10 @@
       <c r="K16" s="39"/>
       <c r="L16" s="87"/>
     </row>
-    <row r="17" spans="2:12" ht="16" thickBot="1">
+    <row r="17" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="45"/>
       <c r="C17" s="152" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3894,11 +3790,11 @@
       <c r="I17" s="12"/>
       <c r="J17" s="51"/>
       <c r="K17" s="157" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L17" s="87"/>
     </row>
-    <row r="18" spans="2:12" ht="16" thickBot="1">
+    <row r="18" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
@@ -3914,11 +3810,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3931,22 +3822,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="25" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="25" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="25" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="26" customWidth="1"/>
     <col min="11" max="11" width="66" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="25"/>
+    <col min="12" max="16384" width="33.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -3958,7 +3849,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="161"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="30"/>
       <c r="C3" s="31" t="s">
         <v>19</v>
@@ -3972,7 +3863,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="162"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="30"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -3984,7 +3875,7 @@
       <c r="J4" s="34"/>
       <c r="K4" s="162"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="35"/>
       <c r="C5" s="36" t="s">
         <v>20</v>
@@ -4000,19 +3891,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>83</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>84</v>
       </c>
       <c r="K5" s="163" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="30"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -4024,17 +3915,17 @@
       <c r="J6" s="34"/>
       <c r="K6" s="162"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>4</v>
@@ -4049,10 +3940,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="139" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -4064,17 +3955,17 @@
       <c r="J8" s="34"/>
       <c r="K8" s="162"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="30"/>
       <c r="C9" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>4</v>
@@ -4089,10 +3980,10 @@
         <v>4</v>
       </c>
       <c r="K9" s="169" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="30"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -4104,17 +3995,17 @@
       <c r="J10" s="34"/>
       <c r="K10" s="162"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="30"/>
       <c r="C11" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>4</v>
@@ -4129,10 +4020,10 @@
         <v>4</v>
       </c>
       <c r="K11" s="169" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="30"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -4144,7 +4035,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="162"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="30"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -4156,7 +4047,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="162"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -4168,7 +4059,7 @@
       <c r="J14" s="34"/>
       <c r="K14" s="162"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -4180,7 +4071,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="162"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -4192,7 +4083,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="162"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -4204,7 +4095,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="162"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -4216,7 +4107,7 @@
       <c r="J18" s="34"/>
       <c r="K18" s="162"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -4228,7 +4119,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="162"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -4240,7 +4131,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="162"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="165"/>
       <c r="C21" s="166"/>
       <c r="D21" s="166"/>
@@ -4255,11 +4146,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4274,23 +4160,23 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="126" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="126" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="126" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="126" customWidth="1"/>
-    <col min="5" max="6" width="8.375" style="126" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="126"/>
-    <col min="8" max="8" width="10.625" style="127"/>
-    <col min="9" max="9" width="10.625" style="126"/>
+    <col min="1" max="1" width="3.5703125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="126" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="126" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="126" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="126" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="126"/>
+    <col min="8" max="8" width="10.7109375" style="127"/>
+    <col min="9" max="9" width="10.7109375" style="126"/>
     <col min="10" max="10" width="35" style="126" customWidth="1"/>
-    <col min="11" max="11" width="63.25" style="126" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="126"/>
+    <col min="11" max="11" width="63.28515625" style="126" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="126"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="16" thickBot="1"/>
-    <row r="3" spans="2:11">
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="128"/>
       <c r="C3" s="129"/>
       <c r="D3" s="129"/>
@@ -4302,13 +4188,13 @@
       <c r="J3" s="129"/>
       <c r="K3" s="131"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="132"/>
       <c r="C4" s="133" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="133" t="s">
         <v>6</v>
@@ -4321,10 +4207,10 @@
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
       <c r="K4" s="135" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -4336,10 +4222,10 @@
       <c r="J5" s="14"/>
       <c r="K5" s="86"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="154"/>
       <c r="C6" s="145" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="145"/>
       <c r="E6" s="145"/>
@@ -4349,10 +4235,10 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="156" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -4364,7 +4250,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="86"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -4376,7 +4262,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="86"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -4388,7 +4274,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="86"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -4400,7 +4286,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="86"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -4412,7 +4298,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="86"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -4424,7 +4310,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="86"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -4436,7 +4322,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="86"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -4448,7 +4334,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="86"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -4460,7 +4346,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="86"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -4472,7 +4358,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="86"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -4484,7 +4370,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="86"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="16"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -4496,7 +4382,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="86"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -4508,7 +4394,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="86"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="16"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -4520,7 +4406,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="86"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -4532,7 +4418,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="86"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -4544,7 +4430,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="86"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -4556,7 +4442,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="86"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -4568,7 +4454,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="86"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -4580,7 +4466,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="86"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -4592,7 +4478,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="86"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -4604,7 +4490,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="86"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -4616,7 +4502,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="86"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="16"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -4628,7 +4514,7 @@
       <c r="J29" s="14"/>
       <c r="K29" s="86"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="16"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -4640,7 +4526,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="86"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="16"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -4652,7 +4538,7 @@
       <c r="J31" s="14"/>
       <c r="K31" s="86"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="16"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -4664,17 +4550,17 @@
       <c r="J32" s="14"/>
       <c r="K32" s="86"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
       <c r="C33" s="14"/>
       <c r="D33" s="145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="155">
         <v>199.1</v>
       </c>
       <c r="F33" s="145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="153"/>
@@ -4682,7 +4568,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="86"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -4694,7 +4580,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="86"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="136"/>
       <c r="C35" s="137"/>
       <c r="D35" s="137"/>
@@ -4706,7 +4592,7 @@
       <c r="J35" s="137"/>
       <c r="K35" s="139"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="136"/>
       <c r="G36" s="137"/>
       <c r="H36" s="138"/>
@@ -4714,29 +4600,29 @@
       <c r="J36" s="137"/>
       <c r="K36" s="139"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="136"/>
       <c r="C37" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="137" t="s">
         <v>89</v>
-      </c>
-      <c r="D37" s="137" t="s">
-        <v>90</v>
       </c>
       <c r="E37" s="137">
         <v>100</v>
       </c>
       <c r="F37" s="142" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" s="137"/>
       <c r="H37" s="138"/>
       <c r="I37" s="137"/>
       <c r="J37" s="137"/>
       <c r="K37" s="139" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="136"/>
       <c r="C38" s="137"/>
       <c r="D38" s="137"/>
@@ -4748,17 +4634,17 @@
       <c r="J38" s="137"/>
       <c r="K38" s="139"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="136"/>
       <c r="C39" s="137"/>
       <c r="D39" s="137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="140">
         <v>2</v>
       </c>
       <c r="F39" s="143" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G39" s="137"/>
       <c r="H39" s="138"/>
@@ -4766,7 +4652,7 @@
       <c r="J39" s="137"/>
       <c r="K39" s="139"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="136"/>
       <c r="C40" s="137"/>
       <c r="G40" s="137"/>
@@ -4775,17 +4661,17 @@
       <c r="J40" s="137"/>
       <c r="K40" s="139"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="136"/>
       <c r="C41" s="137"/>
       <c r="D41" s="145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="137">
         <v>75</v>
       </c>
       <c r="F41" s="142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="137"/>
       <c r="H41" s="138"/>
@@ -4793,7 +4679,7 @@
       <c r="J41" s="137"/>
       <c r="K41" s="139"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="136"/>
       <c r="C42" s="137"/>
       <c r="G42" s="137"/>
@@ -4802,7 +4688,7 @@
       <c r="J42" s="137"/>
       <c r="K42" s="139"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="136"/>
       <c r="C43" s="137"/>
       <c r="D43" s="137"/>
@@ -4814,7 +4700,7 @@
       <c r="J43" s="137"/>
       <c r="K43" s="139"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="136"/>
       <c r="C44" s="137"/>
       <c r="D44" s="137"/>
@@ -4826,7 +4712,7 @@
       <c r="J44" s="137"/>
       <c r="K44" s="139"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="136"/>
       <c r="C45" s="137"/>
       <c r="D45" s="137"/>
@@ -4838,7 +4724,7 @@
       <c r="J45" s="137"/>
       <c r="K45" s="139"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="136"/>
       <c r="C46" s="137"/>
       <c r="D46" s="137"/>
@@ -4850,7 +4736,7 @@
       <c r="J46" s="137"/>
       <c r="K46" s="139"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="136"/>
       <c r="C47" s="137"/>
       <c r="D47" s="137"/>
@@ -4862,7 +4748,7 @@
       <c r="J47" s="137"/>
       <c r="K47" s="139"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="136"/>
       <c r="C48" s="137"/>
       <c r="D48" s="137"/>
@@ -4874,7 +4760,7 @@
       <c r="J48" s="137"/>
       <c r="K48" s="139"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="136"/>
       <c r="C49" s="137"/>
       <c r="D49" s="137"/>
@@ -4886,7 +4772,7 @@
       <c r="J49" s="137"/>
       <c r="K49" s="139"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="136"/>
       <c r="C50" s="137"/>
       <c r="D50" s="137"/>
@@ -4898,7 +4784,7 @@
       <c r="J50" s="137"/>
       <c r="K50" s="139"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="136"/>
       <c r="C51" s="137"/>
       <c r="D51" s="137"/>
@@ -4910,7 +4796,7 @@
       <c r="J51" s="137"/>
       <c r="K51" s="139"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="136"/>
       <c r="C52" s="137"/>
       <c r="D52" s="137"/>
@@ -4922,7 +4808,7 @@
       <c r="J52" s="137"/>
       <c r="K52" s="139"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="136"/>
       <c r="C53" s="137"/>
       <c r="D53" s="137"/>
@@ -4934,7 +4820,7 @@
       <c r="J53" s="137"/>
       <c r="K53" s="139"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="136"/>
       <c r="C54" s="137"/>
       <c r="D54" s="137"/>
@@ -4946,7 +4832,7 @@
       <c r="J54" s="137"/>
       <c r="K54" s="139"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="136"/>
       <c r="C55" s="137"/>
       <c r="D55" s="137"/>
@@ -4958,7 +4844,7 @@
       <c r="J55" s="137"/>
       <c r="K55" s="139"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="136"/>
       <c r="C56" s="137"/>
       <c r="D56" s="137"/>
@@ -4970,7 +4856,7 @@
       <c r="J56" s="137"/>
       <c r="K56" s="139"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="136"/>
       <c r="C57" s="137"/>
       <c r="D57" s="137"/>
@@ -4982,7 +4868,7 @@
       <c r="J57" s="137"/>
       <c r="K57" s="139"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="136"/>
       <c r="C58" s="137"/>
       <c r="D58" s="137"/>
@@ -4994,7 +4880,7 @@
       <c r="J58" s="137"/>
       <c r="K58" s="139"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="136"/>
       <c r="C59" s="137"/>
       <c r="D59" s="137"/>
@@ -5006,7 +4892,7 @@
       <c r="J59" s="137"/>
       <c r="K59" s="139"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="136"/>
       <c r="C60" s="137"/>
       <c r="D60" s="137"/>
@@ -5018,7 +4904,7 @@
       <c r="J60" s="137"/>
       <c r="K60" s="139"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="136"/>
       <c r="C61" s="137"/>
       <c r="D61" s="137"/>
@@ -5030,7 +4916,7 @@
       <c r="J61" s="137"/>
       <c r="K61" s="139"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="136"/>
       <c r="C62" s="137"/>
       <c r="D62" s="137"/>
@@ -5042,19 +4928,19 @@
       <c r="J62" s="137"/>
       <c r="K62" s="139"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="136"/>
       <c r="C63" s="142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" s="137">
         <v>4.2</v>
       </c>
       <c r="F63" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G63" s="137"/>
       <c r="H63" s="138"/>
@@ -5062,7 +4948,7 @@
       <c r="J63" s="137"/>
       <c r="K63" s="139"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="136"/>
       <c r="C64" s="142"/>
       <c r="D64" s="142"/>
@@ -5070,7 +4956,7 @@
         <v>4200</v>
       </c>
       <c r="F64" s="142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G64" s="137"/>
       <c r="H64" s="138"/>
@@ -5078,17 +4964,17 @@
       <c r="J64" s="137"/>
       <c r="K64" s="139"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="136"/>
       <c r="C65" s="137"/>
       <c r="D65" s="142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E65" s="140">
         <v>1000</v>
       </c>
       <c r="F65" s="142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G65" s="137"/>
       <c r="H65" s="138"/>
@@ -5096,7 +4982,7 @@
       <c r="J65" s="137"/>
       <c r="K65" s="139"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="136"/>
       <c r="C66" s="137"/>
       <c r="D66" s="142"/>
@@ -5104,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G66" s="137"/>
       <c r="H66" s="138"/>
@@ -5112,7 +4998,7 @@
       <c r="J66" s="137"/>
       <c r="K66" s="139"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="136"/>
       <c r="C67" s="137"/>
       <c r="D67" s="137"/>
@@ -5124,33 +5010,33 @@
       <c r="J67" s="137"/>
       <c r="K67" s="139"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="136"/>
       <c r="C68" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="142" t="s">
         <v>102</v>
-      </c>
-      <c r="D68" s="142" t="s">
-        <v>103</v>
       </c>
       <c r="E68" s="137">
         <v>13</v>
       </c>
       <c r="F68" s="142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G68" s="137"/>
       <c r="H68" s="138"/>
       <c r="I68" s="137"/>
       <c r="J68" s="137"/>
       <c r="K68" s="139" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="136"/>
       <c r="C69" s="137"/>
       <c r="D69" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="137"/>
       <c r="F69" s="137"/>
@@ -5160,7 +5046,7 @@
       <c r="J69" s="137"/>
       <c r="K69" s="139"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="136"/>
       <c r="C70" s="137"/>
       <c r="D70" s="137"/>
@@ -5172,7 +5058,7 @@
       <c r="J70" s="137"/>
       <c r="K70" s="139"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="136"/>
       <c r="C71" s="137"/>
       <c r="D71" s="137"/>
@@ -5184,7 +5070,7 @@
       <c r="J71" s="137"/>
       <c r="K71" s="139"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="136"/>
       <c r="C72" s="137"/>
       <c r="D72" s="137"/>
@@ -5196,7 +5082,7 @@
       <c r="J72" s="137"/>
       <c r="K72" s="139"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="136"/>
       <c r="C73" s="137"/>
       <c r="D73" s="137"/>
@@ -5208,20 +5094,20 @@
       <c r="J73" s="137"/>
       <c r="K73" s="139"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="136"/>
       <c r="C74" s="142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="145" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E74" s="142">
         <f>1/3600000000</f>
         <v>2.7777777777777777E-10</v>
       </c>
       <c r="F74" s="142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G74" s="137"/>
       <c r="H74" s="138"/>
@@ -5229,7 +5115,7 @@
       <c r="J74" s="137"/>
       <c r="K74" s="139"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="136"/>
       <c r="C75" s="137"/>
       <c r="D75" s="137"/>
@@ -5241,33 +5127,33 @@
       <c r="J75" s="137"/>
       <c r="K75" s="139"/>
     </row>
-    <row r="76" spans="2:11" ht="16">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="136"/>
       <c r="C76" s="145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" s="145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E76" s="137">
         <v>50</v>
       </c>
       <c r="F76" s="145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G76" s="137"/>
       <c r="H76" s="138"/>
       <c r="I76" s="137"/>
       <c r="J76" s="137"/>
-      <c r="K76" s="180" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11">
+      <c r="K76" s="171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="136"/>
       <c r="C77" s="137"/>
       <c r="D77" s="145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E77" s="137"/>
       <c r="F77" s="137"/>
@@ -5277,7 +5163,7 @@
       <c r="J77" s="137"/>
       <c r="K77" s="139"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="136"/>
       <c r="C78" s="137"/>
       <c r="D78" s="137"/>
@@ -5289,7 +5175,7 @@
       <c r="J78" s="137"/>
       <c r="K78" s="139"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="136"/>
       <c r="C79" s="137"/>
       <c r="D79" s="137"/>
@@ -5301,7 +5187,7 @@
       <c r="J79" s="137"/>
       <c r="K79" s="139"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="136"/>
       <c r="C80" s="137"/>
       <c r="D80" s="137"/>
@@ -5313,7 +5199,7 @@
       <c r="J80" s="137"/>
       <c r="K80" s="139"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="136"/>
       <c r="C81" s="137"/>
       <c r="D81" s="137"/>
@@ -5325,7 +5211,7 @@
       <c r="J81" s="137"/>
       <c r="K81" s="139"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="136"/>
       <c r="C82" s="137"/>
       <c r="D82" s="137"/>
@@ -5337,7 +5223,7 @@
       <c r="J82" s="137"/>
       <c r="K82" s="139"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="136"/>
       <c r="C83" s="137"/>
       <c r="D83" s="137"/>
@@ -5349,7 +5235,7 @@
       <c r="J83" s="137"/>
       <c r="K83" s="139"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="136"/>
       <c r="C84" s="137"/>
       <c r="D84" s="137"/>
@@ -5361,7 +5247,7 @@
       <c r="J84" s="137"/>
       <c r="K84" s="139"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="136"/>
       <c r="C85" s="137"/>
       <c r="D85" s="137"/>
@@ -5373,7 +5259,7 @@
       <c r="J85" s="137"/>
       <c r="K85" s="139"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="136"/>
       <c r="C86" s="137"/>
       <c r="D86" s="137"/>
@@ -5385,7 +5271,7 @@
       <c r="J86" s="137"/>
       <c r="K86" s="139"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="136"/>
       <c r="C87" s="137"/>
       <c r="D87" s="137"/>
@@ -5397,7 +5283,7 @@
       <c r="J87" s="137"/>
       <c r="K87" s="139"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="136"/>
       <c r="C88" s="137"/>
       <c r="D88" s="137"/>
@@ -5409,7 +5295,7 @@
       <c r="J88" s="137"/>
       <c r="K88" s="139"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="136"/>
       <c r="C89" s="137"/>
       <c r="D89" s="137"/>
@@ -5421,7 +5307,7 @@
       <c r="J89" s="137"/>
       <c r="K89" s="139"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="136"/>
       <c r="C90" s="137"/>
       <c r="D90" s="137"/>
@@ -5433,7 +5319,7 @@
       <c r="J90" s="137"/>
       <c r="K90" s="139"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="136"/>
       <c r="C91" s="137"/>
       <c r="D91" s="137"/>
@@ -5445,7 +5331,7 @@
       <c r="J91" s="137"/>
       <c r="K91" s="139"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="136"/>
       <c r="C92" s="137"/>
       <c r="D92" s="137"/>
@@ -5457,7 +5343,7 @@
       <c r="J92" s="137"/>
       <c r="K92" s="139"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="136"/>
       <c r="C93" s="137"/>
       <c r="D93" s="137"/>
@@ -5469,7 +5355,7 @@
       <c r="J93" s="137"/>
       <c r="K93" s="139"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="136"/>
       <c r="C94" s="137"/>
       <c r="D94" s="137"/>
@@ -5481,7 +5367,7 @@
       <c r="J94" s="137"/>
       <c r="K94" s="139"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="136"/>
       <c r="C95" s="137"/>
       <c r="D95" s="137"/>
@@ -5493,7 +5379,7 @@
       <c r="J95" s="137"/>
       <c r="K95" s="139"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="136"/>
       <c r="C96" s="137"/>
       <c r="D96" s="137"/>
@@ -5505,7 +5391,7 @@
       <c r="J96" s="137"/>
       <c r="K96" s="139"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="136"/>
       <c r="C97" s="137"/>
       <c r="D97" s="137"/>
@@ -5517,7 +5403,7 @@
       <c r="J97" s="137"/>
       <c r="K97" s="139"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="136"/>
       <c r="C98" s="137"/>
       <c r="D98" s="137"/>
@@ -5529,7 +5415,7 @@
       <c r="J98" s="137"/>
       <c r="K98" s="139"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="136"/>
       <c r="C99" s="137"/>
       <c r="D99" s="137"/>
@@ -5541,7 +5427,7 @@
       <c r="J99" s="137"/>
       <c r="K99" s="139"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="136"/>
       <c r="C100" s="137"/>
       <c r="D100" s="137"/>
@@ -5553,7 +5439,7 @@
       <c r="J100" s="137"/>
       <c r="K100" s="139"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="136"/>
       <c r="C101" s="137"/>
       <c r="D101" s="137"/>
@@ -5565,7 +5451,7 @@
       <c r="J101" s="137"/>
       <c r="K101" s="139"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="136"/>
       <c r="C102" s="137"/>
       <c r="D102" s="137"/>
@@ -5577,7 +5463,7 @@
       <c r="J102" s="137"/>
       <c r="K102" s="139"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="136"/>
       <c r="C103" s="137"/>
       <c r="D103" s="137"/>
@@ -5589,7 +5475,7 @@
       <c r="J103" s="137"/>
       <c r="K103" s="139"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="136"/>
       <c r="C104" s="137"/>
       <c r="D104" s="137"/>
@@ -5601,7 +5487,7 @@
       <c r="J104" s="137"/>
       <c r="K104" s="139"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="136"/>
       <c r="C105" s="137"/>
       <c r="D105" s="137"/>
@@ -5613,7 +5499,7 @@
       <c r="J105" s="137"/>
       <c r="K105" s="139"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="136"/>
       <c r="C106" s="137"/>
       <c r="D106" s="137"/>
@@ -5625,7 +5511,7 @@
       <c r="J106" s="137"/>
       <c r="K106" s="139"/>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="136"/>
       <c r="C107" s="137"/>
       <c r="D107" s="137"/>
@@ -5637,7 +5523,7 @@
       <c r="J107" s="137"/>
       <c r="K107" s="139"/>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="136"/>
       <c r="C108" s="137"/>
       <c r="D108" s="137"/>
@@ -5649,7 +5535,7 @@
       <c r="J108" s="137"/>
       <c r="K108" s="139"/>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="136"/>
       <c r="C109" s="137"/>
       <c r="D109" s="137"/>
@@ -5661,7 +5547,7 @@
       <c r="J109" s="137"/>
       <c r="K109" s="139"/>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="136"/>
       <c r="C110" s="137"/>
       <c r="D110" s="137"/>
@@ -5673,7 +5559,7 @@
       <c r="J110" s="137"/>
       <c r="K110" s="139"/>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="136"/>
       <c r="C111" s="137"/>
       <c r="D111" s="137"/>
@@ -5685,7 +5571,7 @@
       <c r="J111" s="137"/>
       <c r="K111" s="139"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="136"/>
       <c r="C112" s="137"/>
       <c r="D112" s="137"/>
@@ -5697,7 +5583,7 @@
       <c r="J112" s="137"/>
       <c r="K112" s="139"/>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="136"/>
       <c r="C113" s="137"/>
       <c r="D113" s="137"/>
@@ -5709,7 +5595,7 @@
       <c r="J113" s="137"/>
       <c r="K113" s="139"/>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="136"/>
       <c r="C114" s="137"/>
       <c r="D114" s="137"/>
@@ -5721,7 +5607,7 @@
       <c r="J114" s="137"/>
       <c r="K114" s="139"/>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="136"/>
       <c r="C115" s="137"/>
       <c r="D115" s="137"/>
@@ -5733,7 +5619,7 @@
       <c r="J115" s="137"/>
       <c r="K115" s="139"/>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="136"/>
       <c r="C116" s="137"/>
       <c r="D116" s="137"/>
@@ -5745,7 +5631,7 @@
       <c r="J116" s="137"/>
       <c r="K116" s="139"/>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="136"/>
       <c r="C117" s="137"/>
       <c r="D117" s="137"/>
@@ -5757,7 +5643,7 @@
       <c r="J117" s="137"/>
       <c r="K117" s="139"/>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="136"/>
       <c r="C118" s="137"/>
       <c r="D118" s="137"/>
@@ -5769,7 +5655,7 @@
       <c r="J118" s="137"/>
       <c r="K118" s="139"/>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="136"/>
       <c r="C119" s="137"/>
       <c r="D119" s="137"/>
@@ -5781,7 +5667,7 @@
       <c r="J119" s="137"/>
       <c r="K119" s="139"/>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="136"/>
       <c r="C120" s="137"/>
       <c r="D120" s="137"/>
@@ -5793,7 +5679,7 @@
       <c r="J120" s="137"/>
       <c r="K120" s="139"/>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="136"/>
       <c r="C121" s="137"/>
       <c r="D121" s="137"/>
@@ -5805,7 +5691,7 @@
       <c r="J121" s="137"/>
       <c r="K121" s="139"/>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="136"/>
       <c r="C122" s="137"/>
       <c r="D122" s="137"/>
@@ -5817,7 +5703,7 @@
       <c r="J122" s="137"/>
       <c r="K122" s="139"/>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="136"/>
       <c r="C123" s="137"/>
       <c r="D123" s="137"/>
@@ -5829,7 +5715,7 @@
       <c r="J123" s="137"/>
       <c r="K123" s="139"/>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="136"/>
       <c r="C124" s="137"/>
       <c r="D124" s="137"/>
@@ -5841,7 +5727,7 @@
       <c r="J124" s="137"/>
       <c r="K124" s="139"/>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="136"/>
       <c r="C125" s="137"/>
       <c r="D125" s="137"/>
@@ -5853,7 +5739,7 @@
       <c r="J125" s="137"/>
       <c r="K125" s="139"/>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="136"/>
       <c r="C126" s="137"/>
       <c r="D126" s="137"/>
@@ -5865,7 +5751,7 @@
       <c r="J126" s="137"/>
       <c r="K126" s="139"/>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="136"/>
       <c r="C127" s="137"/>
       <c r="D127" s="137"/>
@@ -5877,7 +5763,7 @@
       <c r="J127" s="137"/>
       <c r="K127" s="139"/>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="136"/>
       <c r="C128" s="137"/>
       <c r="D128" s="137"/>
@@ -5889,7 +5775,7 @@
       <c r="J128" s="137"/>
       <c r="K128" s="139"/>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="136"/>
       <c r="C129" s="137"/>
       <c r="D129" s="137"/>
@@ -5901,7 +5787,7 @@
       <c r="J129" s="137"/>
       <c r="K129" s="139"/>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" s="136"/>
       <c r="C130" s="137"/>
       <c r="D130" s="137"/>
@@ -5913,7 +5799,7 @@
       <c r="J130" s="137"/>
       <c r="K130" s="139"/>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" s="136"/>
       <c r="C131" s="137"/>
       <c r="D131" s="137"/>
@@ -5925,7 +5811,7 @@
       <c r="J131" s="137"/>
       <c r="K131" s="139"/>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="136"/>
       <c r="C132" s="137"/>
       <c r="D132" s="137"/>
@@ -5937,7 +5823,7 @@
       <c r="J132" s="137"/>
       <c r="K132" s="139"/>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" s="136"/>
       <c r="C133" s="137"/>
       <c r="D133" s="137"/>
@@ -5949,7 +5835,7 @@
       <c r="J133" s="137"/>
       <c r="K133" s="139"/>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" s="136"/>
       <c r="C134" s="137"/>
       <c r="D134" s="137"/>
@@ -5961,7 +5847,7 @@
       <c r="J134" s="137"/>
       <c r="K134" s="139"/>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B135" s="136"/>
       <c r="C135" s="137"/>
       <c r="D135" s="137"/>
@@ -5973,7 +5859,7 @@
       <c r="J135" s="137"/>
       <c r="K135" s="139"/>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="136"/>
       <c r="C136" s="137"/>
       <c r="D136" s="137"/>
@@ -5985,7 +5871,7 @@
       <c r="J136" s="137"/>
       <c r="K136" s="139"/>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" s="136"/>
       <c r="C137" s="137"/>
       <c r="D137" s="137"/>
@@ -5997,7 +5883,7 @@
       <c r="J137" s="137"/>
       <c r="K137" s="139"/>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" s="136"/>
       <c r="C138" s="137"/>
       <c r="D138" s="137"/>
@@ -6009,7 +5895,7 @@
       <c r="J138" s="137"/>
       <c r="K138" s="139"/>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" s="136"/>
       <c r="C139" s="137"/>
       <c r="D139" s="137"/>
@@ -6021,7 +5907,7 @@
       <c r="J139" s="137"/>
       <c r="K139" s="139"/>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" s="136"/>
       <c r="C140" s="137"/>
       <c r="D140" s="137"/>
@@ -6033,7 +5919,7 @@
       <c r="J140" s="137"/>
       <c r="K140" s="139"/>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" s="136"/>
       <c r="C141" s="137"/>
       <c r="D141" s="137"/>
@@ -6045,7 +5931,7 @@
       <c r="J141" s="137"/>
       <c r="K141" s="139"/>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="136"/>
       <c r="C142" s="137"/>
       <c r="D142" s="137"/>
@@ -6057,7 +5943,7 @@
       <c r="J142" s="137"/>
       <c r="K142" s="139"/>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" s="136"/>
       <c r="C143" s="137"/>
       <c r="D143" s="137"/>
@@ -6069,7 +5955,7 @@
       <c r="J143" s="137"/>
       <c r="K143" s="139"/>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="136"/>
       <c r="C144" s="137"/>
       <c r="D144" s="137"/>
@@ -6081,7 +5967,7 @@
       <c r="J144" s="137"/>
       <c r="K144" s="139"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="136"/>
       <c r="C145" s="137"/>
       <c r="D145" s="137"/>
@@ -6093,7 +5979,7 @@
       <c r="J145" s="137"/>
       <c r="K145" s="139"/>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" s="136"/>
       <c r="C146" s="137"/>
       <c r="D146" s="137"/>
@@ -6105,7 +5991,7 @@
       <c r="J146" s="137"/>
       <c r="K146" s="139"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="136"/>
       <c r="C147" s="137"/>
       <c r="D147" s="137"/>
@@ -6117,7 +6003,7 @@
       <c r="J147" s="137"/>
       <c r="K147" s="139"/>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="136"/>
       <c r="C148" s="137"/>
       <c r="D148" s="137"/>
@@ -6129,7 +6015,7 @@
       <c r="J148" s="137"/>
       <c r="K148" s="139"/>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="136"/>
       <c r="C149" s="137"/>
       <c r="D149" s="137"/>
@@ -6141,7 +6027,7 @@
       <c r="J149" s="137"/>
       <c r="K149" s="139"/>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="136"/>
       <c r="C150" s="137"/>
       <c r="D150" s="137"/>
@@ -6153,7 +6039,7 @@
       <c r="J150" s="137"/>
       <c r="K150" s="139"/>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="136"/>
       <c r="C151" s="137"/>
       <c r="D151" s="137"/>
@@ -6165,7 +6051,7 @@
       <c r="J151" s="137"/>
       <c r="K151" s="139"/>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="136"/>
       <c r="C152" s="137"/>
       <c r="D152" s="137"/>
@@ -6177,7 +6063,7 @@
       <c r="J152" s="137"/>
       <c r="K152" s="139"/>
     </row>
-    <row r="153" spans="2:11">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B153" s="136"/>
       <c r="C153" s="137"/>
       <c r="D153" s="137"/>
@@ -6189,7 +6075,7 @@
       <c r="J153" s="137"/>
       <c r="K153" s="139"/>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" s="136"/>
       <c r="C154" s="137"/>
       <c r="D154" s="137"/>
@@ -6201,7 +6087,7 @@
       <c r="J154" s="137"/>
       <c r="K154" s="139"/>
     </row>
-    <row r="155" spans="2:11">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B155" s="136"/>
       <c r="C155" s="137"/>
       <c r="D155" s="137"/>
@@ -6213,7 +6099,7 @@
       <c r="J155" s="137"/>
       <c r="K155" s="139"/>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" s="136"/>
       <c r="C156" s="137"/>
       <c r="D156" s="137"/>
@@ -6225,7 +6111,7 @@
       <c r="J156" s="137"/>
       <c r="K156" s="139"/>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B157" s="136"/>
       <c r="C157" s="137"/>
       <c r="D157" s="137"/>
@@ -6237,7 +6123,7 @@
       <c r="J157" s="137"/>
       <c r="K157" s="139"/>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" s="136"/>
       <c r="C158" s="137"/>
       <c r="D158" s="137"/>
@@ -6249,7 +6135,7 @@
       <c r="J158" s="137"/>
       <c r="K158" s="139"/>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B159" s="136"/>
       <c r="C159" s="137"/>
       <c r="D159" s="137"/>
@@ -6261,7 +6147,7 @@
       <c r="J159" s="137"/>
       <c r="K159" s="139"/>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B160" s="136"/>
       <c r="C160" s="137"/>
       <c r="D160" s="137"/>
@@ -6273,7 +6159,7 @@
       <c r="J160" s="137"/>
       <c r="K160" s="139"/>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" s="136"/>
       <c r="C161" s="137"/>
       <c r="D161" s="137"/>
@@ -6285,7 +6171,7 @@
       <c r="J161" s="137"/>
       <c r="K161" s="139"/>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B162" s="136"/>
       <c r="C162" s="137"/>
       <c r="D162" s="137"/>
@@ -6297,7 +6183,7 @@
       <c r="J162" s="137"/>
       <c r="K162" s="139"/>
     </row>
-    <row r="163" spans="2:11">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B163" s="136"/>
       <c r="C163" s="137"/>
       <c r="D163" s="137"/>
@@ -6309,7 +6195,7 @@
       <c r="J163" s="137"/>
       <c r="K163" s="139"/>
     </row>
-    <row r="164" spans="2:11">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" s="136"/>
       <c r="C164" s="137"/>
       <c r="D164" s="137"/>
@@ -6321,7 +6207,7 @@
       <c r="J164" s="137"/>
       <c r="K164" s="139"/>
     </row>
-    <row r="165" spans="2:11">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" s="136"/>
       <c r="C165" s="137"/>
       <c r="D165" s="137"/>
@@ -6333,7 +6219,7 @@
       <c r="J165" s="137"/>
       <c r="K165" s="139"/>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" s="136"/>
       <c r="C166" s="137"/>
       <c r="D166" s="137"/>
@@ -6345,7 +6231,7 @@
       <c r="J166" s="137"/>
       <c r="K166" s="139"/>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B167" s="136"/>
       <c r="C167" s="137"/>
       <c r="D167" s="137"/>
@@ -6357,7 +6243,7 @@
       <c r="J167" s="137"/>
       <c r="K167" s="139"/>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B168" s="136"/>
       <c r="C168" s="137"/>
       <c r="D168" s="137"/>
@@ -6369,7 +6255,7 @@
       <c r="J168" s="137"/>
       <c r="K168" s="139"/>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B169" s="136"/>
       <c r="C169" s="137"/>
       <c r="D169" s="137"/>
@@ -6388,10 +6274,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_flexibility_p2h_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_flexibility_p2h_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C72563-5B5C-3740-9470-71202411673D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
   <si>
     <t>Source</t>
   </si>
@@ -184,21 +185,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
   </si>
   <si>
     <t>Author</t>
@@ -448,9 +434,6 @@
     <t>hours</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Investement costs</t>
   </si>
   <si>
@@ -494,14 +477,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1278,7 +1261,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1489,9 +1472,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,6 +1895,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1936,7 +1919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1974,7 +1963,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2012,7 +2007,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2050,7 +2051,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2510,57 +2517,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="15"/>
+    <col min="1" max="1" width="3.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="20" customFormat="1">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -2569,136 +2576,136 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="57" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="80"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60"/>
       <c r="D10" s="81"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="59" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11" s="81"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="59"/>
       <c r="C12" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="81"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="59"/>
       <c r="C13" s="62" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" s="81"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="81"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
       <c r="D15" s="81"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="59" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="81"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="59"/>
       <c r="C17" s="64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17" s="81"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="59"/>
       <c r="C18" s="65" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" s="81"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="59"/>
       <c r="C19" s="66" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D19" s="81"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D20" s="81"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="67"/>
       <c r="C21" s="69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="81"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="67"/>
       <c r="C22" s="70" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22" s="81"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="67"/>
       <c r="C23" s="71" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="81"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="82"/>
       <c r="C24" s="83"/>
       <c r="D24" s="84"/>
@@ -2710,68 +2717,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E4"/>
+      <selection activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="92" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="92" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="92" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="92" customWidth="1"/>
     <col min="3" max="3" width="46" style="92" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="92" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="92" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="92" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="92" customWidth="1"/>
     <col min="7" max="7" width="45" style="92" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="92" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="92" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="92" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="92"/>
+    <col min="8" max="8" width="5.1640625" style="92" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="92" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="92" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="170"/>
+    <row r="1" spans="1:11" ht="16" customHeight="1">
+      <c r="A1" s="169"/>
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
       <c r="F1" s="93"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="172" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="174"/>
+    <row r="2" spans="1:11" ht="16" customHeight="1">
+      <c r="B2" s="171" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
     </row>
-    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177"/>
+    <row r="3" spans="1:11" ht="16" customHeight="1">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="93"/>
       <c r="G3" s="93"/>
     </row>
-    <row r="4" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="178"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
+    <row r="4" spans="1:11" ht="37" customHeight="1">
+      <c r="B4" s="177"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="93"/>
       <c r="G4" s="93"/>
     </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" customHeight="1" thickBot="1">
       <c r="D5" s="93"/>
     </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" customHeight="1">
       <c r="B6" s="94"/>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
@@ -2782,7 +2789,7 @@
       <c r="I6" s="95"/>
       <c r="J6" s="96"/>
     </row>
-    <row r="7" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="97"/>
       <c r="C7" s="98" t="s">
         <v>22</v>
@@ -2803,7 +2810,7 @@
       </c>
       <c r="J7" s="100"/>
     </row>
-    <row r="8" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1">
       <c r="B8" s="102"/>
       <c r="C8" s="103"/>
       <c r="D8" s="104"/>
@@ -2814,10 +2821,10 @@
       <c r="I8" s="103"/>
       <c r="J8" s="105"/>
     </row>
-    <row r="9" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="102"/>
       <c r="C9" s="103" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="103"/>
@@ -2827,48 +2834,48 @@
       <c r="I9" s="103"/>
       <c r="J9" s="105"/>
     </row>
-    <row r="10" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="102"/>
-      <c r="C10" s="124" t="s">
-        <v>86</v>
+      <c r="C10" s="123" t="s">
+        <v>81</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="150">
+        <v>106</v>
+      </c>
+      <c r="E10" s="149">
         <f>'Research data'!G7</f>
         <v>7.2333333333333329E-3</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="109"/>
-      <c r="I10" s="158" t="s">
-        <v>126</v>
+      <c r="I10" s="157" t="s">
+        <v>120</v>
       </c>
       <c r="J10" s="105"/>
     </row>
-    <row r="11" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="102"/>
-      <c r="C11" s="124" t="s">
-        <v>87</v>
+      <c r="C11" s="123" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="151">
+      <c r="E11" s="150">
         <f>'Research data'!G8</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="F11" s="108"/>
       <c r="G11" s="109"/>
-      <c r="I11" s="158" t="s">
-        <v>88</v>
+      <c r="I11" s="157" t="s">
+        <v>83</v>
       </c>
       <c r="J11" s="105"/>
     </row>
-    <row r="12" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="101" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="102"/>
       <c r="C12" s="106" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" s="111" t="s">
         <v>4</v>
@@ -2878,12 +2885,12 @@
       </c>
       <c r="F12" s="108"/>
       <c r="G12" s="109"/>
-      <c r="I12" s="158" t="s">
-        <v>129</v>
+      <c r="I12" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="J12" s="105"/>
     </row>
-    <row r="13" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16" customHeight="1" thickBot="1">
       <c r="B13" s="110"/>
       <c r="C13" s="108" t="s">
         <v>24</v>
@@ -2896,13 +2903,13 @@
       </c>
       <c r="F13" s="108"/>
       <c r="G13" s="108"/>
-      <c r="I13" s="158" t="s">
-        <v>127</v>
+      <c r="I13" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J13" s="112"/>
       <c r="K13" s="93"/>
     </row>
-    <row r="14" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" customHeight="1" thickBot="1">
       <c r="B14" s="110"/>
       <c r="C14" s="108" t="s">
         <v>26</v>
@@ -2915,32 +2922,32 @@
       </c>
       <c r="F14" s="108"/>
       <c r="G14" s="108"/>
-      <c r="I14" s="158" t="s">
-        <v>127</v>
+      <c r="I14" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J14" s="112"/>
       <c r="K14" s="93"/>
     </row>
-    <row r="15" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="110"/>
       <c r="C15" s="106" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D15" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="125">
+        <v>115</v>
+      </c>
+      <c r="E15" s="124">
         <v>0</v>
       </c>
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
-      <c r="I15" s="158" t="s">
-        <v>127</v>
+      <c r="I15" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J15" s="112"/>
       <c r="K15" s="93"/>
     </row>
-    <row r="16" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="110"/>
       <c r="C16" s="108" t="s">
         <v>8</v>
@@ -2953,13 +2960,13 @@
       </c>
       <c r="F16" s="108"/>
       <c r="G16" s="108"/>
-      <c r="I16" s="158" t="s">
-        <v>127</v>
+      <c r="I16" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J16" s="112"/>
       <c r="K16" s="93"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B17" s="110"/>
       <c r="C17" s="108" t="s">
         <v>29</v>
@@ -2972,13 +2979,13 @@
       </c>
       <c r="F17" s="108"/>
       <c r="G17" s="108"/>
-      <c r="I17" s="158" t="s">
-        <v>127</v>
+      <c r="I17" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J17" s="112"/>
       <c r="K17" s="93"/>
     </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="110"/>
       <c r="C18" s="108" t="s">
         <v>30</v>
@@ -2991,13 +2998,13 @@
       </c>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
-      <c r="I18" s="158" t="s">
-        <v>127</v>
+      <c r="I18" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J18" s="112"/>
       <c r="K18" s="93"/>
     </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="110"/>
       <c r="C19" s="108" t="s">
         <v>31</v>
@@ -3010,12 +3017,12 @@
       </c>
       <c r="F19" s="108"/>
       <c r="G19" s="108"/>
-      <c r="I19" s="158" t="s">
-        <v>127</v>
+      <c r="I19" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J19" s="112"/>
     </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="110"/>
       <c r="C20" s="108" t="s">
         <v>32</v>
@@ -3023,475 +3030,385 @@
       <c r="D20" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="149">
+      <c r="E20" s="148">
         <v>2E-3</v>
       </c>
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
-      <c r="I20" s="158" t="s">
-        <v>88</v>
+      <c r="I20" s="157" t="s">
+        <v>83</v>
       </c>
       <c r="J20" s="112"/>
     </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="16" customHeight="1">
       <c r="B21" s="110"/>
-      <c r="C21" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="107">
-        <v>0</v>
-      </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="I21" s="158" t="s">
-        <v>127</v>
-      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="112"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B22" s="110"/>
-      <c r="C22" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="107">
-        <v>0</v>
-      </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="I22" s="158" t="s">
-        <v>127</v>
-      </c>
+      <c r="C22" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="112"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="110"/>
-      <c r="C23" s="114" t="s">
-        <v>47</v>
+      <c r="C23" s="108" t="s">
+        <v>33</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="107">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E23" s="113">
+        <f>'Research data'!G17</f>
+        <v>249.1</v>
       </c>
       <c r="F23" s="108"/>
       <c r="G23" s="108"/>
-      <c r="I23" s="158" t="s">
-        <v>127</v>
+      <c r="I23" s="157" t="s">
+        <v>122</v>
       </c>
       <c r="J23" s="112"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="110"/>
-      <c r="C24" s="114" t="s">
-        <v>48</v>
+      <c r="C24" s="108" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E24" s="107">
         <v>0</v>
       </c>
       <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="I24" s="158" t="s">
-        <v>127</v>
+      <c r="G24" s="123"/>
+      <c r="I24" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J24" s="112"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="110"/>
-      <c r="C25" s="114" t="s">
-        <v>49</v>
+      <c r="C25" s="108" t="s">
+        <v>10</v>
       </c>
       <c r="D25" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="107">
+        <v>0</v>
+      </c>
+      <c r="F25" s="108"/>
+      <c r="G25" s="123"/>
+      <c r="I25" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="125">
+      <c r="J25" s="112"/>
+    </row>
+    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
+      <c r="B26" s="110"/>
+      <c r="C26" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="107">
         <v>0</v>
       </c>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="I25" s="158" t="s">
-        <v>127</v>
-      </c>
-      <c r="J25" s="112"/>
-    </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="110"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="I26" s="93"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="123"/>
+      <c r="I26" s="157" t="s">
+        <v>121</v>
+      </c>
       <c r="J26" s="112"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="110"/>
-      <c r="C27" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="I27" s="93"/>
+      <c r="C27" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="158">
+        <v>0</v>
+      </c>
+      <c r="F27" s="108"/>
+      <c r="G27" s="123"/>
+      <c r="I27" s="157" t="s">
+        <v>121</v>
+      </c>
       <c r="J27" s="112"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="110"/>
       <c r="C28" s="108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="113">
-        <f>'Research data'!G17</f>
-        <v>249.1</v>
+        <v>42</v>
+      </c>
+      <c r="E28" s="107">
+        <v>0</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
-      <c r="I28" s="158" t="s">
-        <v>128</v>
+      <c r="I28" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J28" s="112"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="110"/>
       <c r="C29" s="108" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D29" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="107">
+        <v>42</v>
+      </c>
+      <c r="E29" s="159">
         <v>0</v>
       </c>
       <c r="F29" s="108"/>
-      <c r="G29" s="124"/>
-      <c r="I29" s="158" t="s">
-        <v>127</v>
+      <c r="G29" s="108"/>
+      <c r="I29" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J29" s="112"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="110"/>
       <c r="C30" s="108" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E30" s="107">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="108"/>
-      <c r="G30" s="124"/>
-      <c r="I30" s="158" t="s">
-        <v>127</v>
+      <c r="G30" s="108"/>
+      <c r="I30" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="110"/>
       <c r="C31" s="108" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="107">
+        <v>9</v>
+      </c>
+      <c r="E31" s="113">
         <v>0</v>
       </c>
       <c r="F31" s="108"/>
-      <c r="G31" s="124"/>
-      <c r="I31" s="158" t="s">
-        <v>127</v>
+      <c r="G31" s="108"/>
+      <c r="I31" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J31" s="112"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="16" customHeight="1">
       <c r="B32" s="110"/>
-      <c r="C32" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="159">
-        <v>0</v>
-      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="108"/>
-      <c r="G32" s="124"/>
-      <c r="I32" s="158" t="s">
-        <v>127</v>
-      </c>
+      <c r="G32" s="108"/>
+      <c r="I32" s="93"/>
       <c r="J32" s="112"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B33" s="110"/>
-      <c r="C33" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="107">
-        <v>0</v>
-      </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="I33" s="158" t="s">
-        <v>127</v>
-      </c>
+      <c r="C33" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="I33" s="93"/>
       <c r="J33" s="112"/>
     </row>
-    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="110"/>
       <c r="C34" s="108" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D34" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="160">
+        <v>3</v>
+      </c>
+      <c r="E34" s="113">
         <v>0</v>
       </c>
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
-      <c r="I34" s="158" t="s">
-        <v>127</v>
+      <c r="I34" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="110"/>
       <c r="C35" s="108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="107">
-        <v>0.04</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="117">
+        <v>0</v>
       </c>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
-      <c r="I35" s="158" t="s">
-        <v>127</v>
+      <c r="I35" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="J35" s="112"/>
     </row>
-    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B36" s="110"/>
       <c r="C36" s="108" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E36" s="113">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
-      <c r="I36" s="158" t="s">
-        <v>127</v>
+      <c r="I36" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="J36" s="112"/>
     </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B37" s="110"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="119"/>
+      <c r="C37" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="113">
+        <v>0</v>
+      </c>
       <c r="F37" s="108"/>
       <c r="G37" s="108"/>
-      <c r="I37" s="93"/>
+      <c r="I37" s="157" t="s">
+        <v>121</v>
+      </c>
       <c r="J37" s="112"/>
     </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B38" s="110"/>
-      <c r="C38" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="I38" s="93"/>
+      <c r="C38" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="111"/>
+      <c r="E38" s="117">
+        <v>0</v>
+      </c>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="I38" s="157" t="s">
+        <v>123</v>
+      </c>
       <c r="J38" s="112"/>
     </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B39" s="110"/>
-      <c r="C39" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="113">
+      <c r="C39" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="111"/>
+      <c r="E39" s="117">
         <v>0</v>
       </c>
       <c r="F39" s="108"/>
       <c r="G39" s="108"/>
-      <c r="I39" s="158" t="s">
-        <v>127</v>
+      <c r="I39" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="J39" s="112"/>
     </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B40" s="110"/>
-      <c r="C40" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="118">
-        <v>0</v>
+      <c r="C40" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="111"/>
+      <c r="E40" s="117">
+        <v>5</v>
       </c>
       <c r="F40" s="108"/>
       <c r="G40" s="108"/>
-      <c r="I40" s="158" t="s">
-        <v>127</v>
+      <c r="I40" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="J40" s="112"/>
     </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B41" s="110"/>
-      <c r="C41" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="111" t="s">
+      <c r="C41" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="111"/>
+      <c r="E41" s="117">
         <v>1</v>
-      </c>
-      <c r="E41" s="113">
-        <v>15</v>
       </c>
       <c r="F41" s="108"/>
       <c r="G41" s="108"/>
-      <c r="I41" s="158" t="s">
-        <v>129</v>
+      <c r="I41" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="J41" s="112"/>
     </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B42" s="110"/>
-      <c r="C42" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="113">
-        <v>0</v>
+      <c r="C42" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="111"/>
+      <c r="E42" s="117">
+        <v>5</v>
       </c>
       <c r="F42" s="108"/>
       <c r="G42" s="108"/>
-      <c r="I42" s="158" t="s">
-        <v>127</v>
+      <c r="I42" s="157" t="s">
+        <v>123</v>
       </c>
       <c r="J42" s="112"/>
     </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="110"/>
-      <c r="C43" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="118">
-        <v>0</v>
-      </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="I43" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="J43" s="112"/>
-    </row>
-    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="110"/>
-      <c r="C44" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="118">
-        <v>0</v>
-      </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="I44" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="J44" s="112"/>
-    </row>
-    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="110"/>
-      <c r="C45" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="118">
-        <v>5</v>
-      </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="I45" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="J45" s="112"/>
-    </row>
-    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="110"/>
-      <c r="C46" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="118">
-        <v>1</v>
-      </c>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="I46" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="J46" s="112"/>
-    </row>
-    <row r="47" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="110"/>
-      <c r="C47" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="118">
-        <v>5</v>
-      </c>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="I47" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="112"/>
-    </row>
-    <row r="48" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="121"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="123"/>
+    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B43" s="120"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3503,8 +3420,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:L18"/>
@@ -3513,24 +3430,24 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="40" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="40" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="40" customWidth="1"/>
     <col min="8" max="8" width="4" style="40" customWidth="1"/>
     <col min="9" max="9" width="16" style="40" customWidth="1"/>
     <col min="10" max="10" width="3" style="41" customWidth="1"/>
     <col min="11" max="11" width="60" style="40" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="40" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="40"/>
+    <col min="12" max="12" width="2.1640625" style="40" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="42"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -3543,10 +3460,10 @@
       <c r="K2" s="43"/>
       <c r="L2" s="85"/>
     </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" s="17" customFormat="1">
       <c r="B3" s="16"/>
       <c r="C3" s="74" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3554,17 +3471,17 @@
         <v>12</v>
       </c>
       <c r="G3" s="74" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
       <c r="J3" s="38"/>
       <c r="K3" s="74" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L3" s="86"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -3577,10 +3494,10 @@
       <c r="K4" s="9"/>
       <c r="L4" s="87"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="45"/>
       <c r="C5" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -3592,7 +3509,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="87"/>
     </row>
-    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3605,17 +3522,17 @@
       <c r="K6" s="39"/>
       <c r="L6" s="87"/>
     </row>
-    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="45"/>
-      <c r="C7" s="141" t="s">
-        <v>91</v>
+      <c r="C7" s="140" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="147">
+      <c r="F7" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="146">
         <f>Notes!E37*Notes!E64*(Notes!E41-Notes!E68)*Notes!E74</f>
         <v>7.2333333333333329E-3</v>
       </c>
@@ -3625,17 +3542,17 @@
       <c r="K7" s="39"/>
       <c r="L7" s="87"/>
     </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="45"/>
-      <c r="C8" s="144" t="s">
-        <v>109</v>
+      <c r="C8" s="143" t="s">
+        <v>104</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
-      <c r="F8" s="146" t="s">
+      <c r="F8" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="147">
         <f>Notes!E76/1000000</f>
         <v>5.0000000000000002E-5</v>
       </c>
@@ -3645,17 +3562,17 @@
       <c r="K8" s="39"/>
       <c r="L8" s="87"/>
     </row>
-    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="45"/>
-      <c r="C9" s="152" t="s">
-        <v>118</v>
+      <c r="C9" s="151" t="s">
+        <v>113</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
-      <c r="F9" s="146" t="s">
+      <c r="F9" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="147">
+      <c r="G9" s="146">
         <f>Notes!E39/1000</f>
         <v>2E-3</v>
       </c>
@@ -3665,7 +3582,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="87"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="45"/>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
@@ -3678,7 +3595,7 @@
       <c r="K10" s="39"/>
       <c r="L10" s="87"/>
     </row>
-    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="17" thickBot="1">
       <c r="B11" s="45"/>
       <c r="C11" s="23" t="s">
         <v>7</v>
@@ -3693,10 +3610,10 @@
       <c r="K11" s="24"/>
       <c r="L11" s="87"/>
     </row>
-    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="17" thickBot="1">
       <c r="B12" s="45"/>
       <c r="C12" s="77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -3710,10 +3627,10 @@
       <c r="K12" s="24"/>
       <c r="L12" s="87"/>
     </row>
-    <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="45"/>
       <c r="C13" s="77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -3727,7 +3644,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="87"/>
     </row>
-    <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="17" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="56" t="s">
         <v>5</v>
@@ -3744,7 +3661,7 @@
       <c r="K14" s="75"/>
       <c r="L14" s="87"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="B15" s="45"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -3757,10 +3674,10 @@
       <c r="K15" s="39"/>
       <c r="L15" s="87"/>
     </row>
-    <row r="16" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="17" thickBot="1">
       <c r="B16" s="45"/>
       <c r="C16" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -3772,10 +3689,10 @@
       <c r="K16" s="39"/>
       <c r="L16" s="87"/>
     </row>
-    <row r="17" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="17" thickBot="1">
       <c r="B17" s="45"/>
-      <c r="C17" s="152" t="s">
-        <v>70</v>
+      <c r="C17" s="151" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -3789,12 +3706,12 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="51"/>
-      <c r="K17" s="157" t="s">
-        <v>125</v>
+      <c r="K17" s="156" t="s">
+        <v>119</v>
       </c>
       <c r="L17" s="87"/>
     </row>
-    <row r="18" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="17" thickBot="1">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
@@ -3814,30 +3731,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="25" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="25" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="26" customWidth="1"/>
     <col min="11" max="11" width="66" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="25"/>
+    <col min="12" max="16384" width="33.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -3847,9 +3764,9 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="161"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="160"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="30"/>
       <c r="C3" s="31" t="s">
         <v>19</v>
@@ -3861,9 +3778,9 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="162"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="161"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="30"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -3873,9 +3790,9 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="162"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="161"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="35"/>
       <c r="C5" s="36" t="s">
         <v>20</v>
@@ -3891,19 +3808,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="162" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="30"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -3913,19 +3830,19 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="162"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="161"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="30"/>
       <c r="C7" s="33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>4</v>
@@ -3933,17 +3850,17 @@
       <c r="H7" s="33">
         <v>2016</v>
       </c>
-      <c r="I7" s="164">
+      <c r="I7" s="163">
         <v>42389</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="139" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="138" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="30"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -3953,19 +3870,19 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="34"/>
-      <c r="K8" s="162"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="161"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="30"/>
       <c r="C9" s="33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>4</v>
@@ -3973,17 +3890,17 @@
       <c r="H9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="164">
+      <c r="I9" s="163">
         <v>42389</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="169" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="168" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="30"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -3993,19 +3910,19 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="34"/>
-      <c r="K10" s="162"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="161"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="30"/>
       <c r="C11" s="33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>4</v>
@@ -4013,17 +3930,17 @@
       <c r="H11" s="33">
         <v>2016</v>
       </c>
-      <c r="I11" s="164">
+      <c r="I11" s="163">
         <v>42389</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="169" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="168" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="30"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -4033,9 +3950,9 @@
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="34"/>
-      <c r="K12" s="162"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="161"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="30"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -4045,9 +3962,9 @@
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="34"/>
-      <c r="K13" s="162"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="161"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -4057,9 +3974,9 @@
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
-      <c r="K14" s="162"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="161"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -4069,9 +3986,9 @@
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="162"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="161"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -4081,9 +3998,9 @@
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
-      <c r="K16" s="162"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="161"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="30"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -4093,9 +4010,9 @@
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
-      <c r="K17" s="162"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="161"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="30"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -4105,9 +4022,9 @@
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="162"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="161"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="30"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -4117,9 +4034,9 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="34"/>
-      <c r="K19" s="162"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="161"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="30"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -4129,19 +4046,19 @@
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="162"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="165"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="168"/>
+      <c r="K20" s="161"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="167"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4150,8 +4067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="B2:K169"/>
@@ -4160,2116 +4077,2116 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="126" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="126" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="126" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="126" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" style="126" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="126"/>
-    <col min="8" max="8" width="10.7109375" style="127"/>
-    <col min="9" max="9" width="10.7109375" style="126"/>
-    <col min="10" max="10" width="35" style="126" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" style="126" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="126"/>
+    <col min="1" max="1" width="3.5" style="125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="125" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="125"/>
+    <col min="8" max="8" width="10.6640625" style="126"/>
+    <col min="9" max="9" width="10.6640625" style="125"/>
+    <col min="10" max="10" width="35" style="125" customWidth="1"/>
+    <col min="11" max="11" width="63.33203125" style="125" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="131"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133" t="s">
+    <row r="2" spans="2:11" ht="17" thickBot="1"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="130"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="131"/>
+      <c r="C4" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="133" t="s">
+      <c r="D4" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="135" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="134" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="16"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="153"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="86"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="154"/>
-      <c r="C6" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
+    <row r="6" spans="2:11">
+      <c r="B6" s="153"/>
+      <c r="C6" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="153"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="156" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="155" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="153"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="86"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="16"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="153"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="86"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="153"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="86"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="153"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="86"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="153"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="86"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="153"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="86"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="153"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="86"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="153"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="86"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="153"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="86"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="153"/>
+      <c r="H16" s="152"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="86"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="153"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="86"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="16"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="153"/>
+      <c r="H18" s="152"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="86"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="16"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="153"/>
+      <c r="H19" s="152"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="86"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="16"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="153"/>
+      <c r="H20" s="152"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="86"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="153"/>
+      <c r="H21" s="152"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="86"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="16"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="153"/>
+      <c r="H22" s="152"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="86"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="153"/>
+      <c r="H23" s="152"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="86"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="153"/>
+      <c r="H24" s="152"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="86"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="16"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="153"/>
+      <c r="H25" s="152"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="86"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="16"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="153"/>
+      <c r="H26" s="152"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="86"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="16"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="153"/>
+      <c r="H27" s="152"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="86"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="16"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="153"/>
+      <c r="H28" s="152"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="86"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="16"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="153"/>
+      <c r="H29" s="152"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="86"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="16"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="153"/>
+      <c r="H30" s="152"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="86"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="16"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="153"/>
+      <c r="H31" s="152"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="86"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="16"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="153"/>
+      <c r="H32" s="152"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="86"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="16"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="145" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="155">
+      <c r="D33" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="154">
         <v>199.1</v>
       </c>
-      <c r="F33" s="145" t="s">
-        <v>123</v>
+      <c r="F33" s="144" t="s">
+        <v>117</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="153"/>
+      <c r="H33" s="152"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="86"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="16"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="153"/>
+      <c r="H34" s="152"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="86"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="136"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="139"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="136"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="139"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="136"/>
-      <c r="C37" s="137" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" s="135"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="138"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="135"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="138"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="135"/>
+      <c r="C37" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="136">
+        <v>100</v>
+      </c>
+      <c r="F37" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="138" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="135"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="138"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="139">
+        <v>2</v>
+      </c>
+      <c r="F39" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="137" t="s">
+      <c r="G39" s="136"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="138"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="135"/>
+      <c r="C40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="138"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="144" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="136">
+        <v>75</v>
+      </c>
+      <c r="F41" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="137">
+      <c r="G41" s="136"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="138"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="135"/>
+      <c r="C42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="138"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="138"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="135"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="138"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="138"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="138"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="138"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="135"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="138"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="138"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="135"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="138"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="135"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="138"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="135"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="138"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="135"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="138"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="135"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="138"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="135"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="138"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="135"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="138"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="135"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="138"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="135"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="138"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="135"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="138"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="135"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="138"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="136"/>
+      <c r="J61" s="136"/>
+      <c r="K61" s="138"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="136"/>
+      <c r="J62" s="136"/>
+      <c r="K62" s="138"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="135"/>
+      <c r="C63" s="141" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="136">
+        <v>4.2</v>
+      </c>
+      <c r="F63" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="136"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="136"/>
+      <c r="K63" s="138"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="135"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="136">
+        <v>4200</v>
+      </c>
+      <c r="F64" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="142" t="s">
+      <c r="G64" s="136"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="136"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="138"/>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="135"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="139">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="136"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="136"/>
+      <c r="J65" s="136"/>
+      <c r="K65" s="138"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="135"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="139">
+        <v>1</v>
+      </c>
+      <c r="F66" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="136"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="138"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="135"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="136"/>
+      <c r="E67" s="136"/>
+      <c r="F67" s="136"/>
+      <c r="G67" s="136"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="136"/>
+      <c r="J67" s="136"/>
+      <c r="K67" s="138"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="135"/>
+      <c r="C68" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="136">
+        <v>13</v>
+      </c>
+      <c r="F68" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="136"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="136"/>
+      <c r="K68" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="139" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="136"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="139"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="136"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="140">
-        <v>2</v>
-      </c>
-      <c r="F39" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="137"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="139"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="136"/>
-      <c r="C40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="139"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="136"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="145" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="137">
-        <v>75</v>
-      </c>
-      <c r="F41" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="137"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="139"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="136"/>
-      <c r="C42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="139"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="136"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="139"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="136"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="139"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="136"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="139"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="136"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="139"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="136"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="139"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="136"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="139"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="136"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="139"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="136"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="139"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="136"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="139"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="136"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="139"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="136"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="139"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="136"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="139"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="136"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="137"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="139"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="136"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="139"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="136"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="139"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="136"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="137"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="139"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="136"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="139"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="136"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="139"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="136"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="139"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="136"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="139"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="136"/>
-      <c r="C63" s="142" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="137">
-        <v>4.2</v>
-      </c>
-      <c r="F63" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="G63" s="137"/>
-      <c r="H63" s="138"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="137"/>
-      <c r="K63" s="139"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="136"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="142"/>
-      <c r="E64" s="137">
-        <v>4200</v>
-      </c>
-      <c r="F64" s="142" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64" s="137"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="139"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="136"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="142" t="s">
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="135"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="140">
-        <v>1000</v>
-      </c>
-      <c r="F65" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" s="137"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="137"/>
-      <c r="J65" s="137"/>
-      <c r="K65" s="139"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="136"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="140">
-        <v>1</v>
-      </c>
-      <c r="F66" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="137"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="139"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="136"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="139"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="136"/>
-      <c r="C68" s="142" t="s">
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="136"/>
+      <c r="J69" s="136"/>
+      <c r="K69" s="138"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="135"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="136"/>
+      <c r="F70" s="136"/>
+      <c r="G70" s="136"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="136"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="138"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="135"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="136"/>
+      <c r="E71" s="136"/>
+      <c r="F71" s="136"/>
+      <c r="G71" s="136"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="136"/>
+      <c r="J71" s="136"/>
+      <c r="K71" s="138"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="135"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="136"/>
+      <c r="G72" s="136"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="136"/>
+      <c r="J72" s="136"/>
+      <c r="K72" s="138"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="135"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="136"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="136"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="136"/>
+      <c r="J73" s="136"/>
+      <c r="K73" s="138"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="135"/>
+      <c r="C74" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="137">
-        <v>13</v>
-      </c>
-      <c r="F68" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" s="137"/>
-      <c r="H68" s="138"/>
-      <c r="I68" s="137"/>
-      <c r="J68" s="137"/>
-      <c r="K68" s="139" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="136"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="138"/>
-      <c r="I69" s="137"/>
-      <c r="J69" s="137"/>
-      <c r="K69" s="139"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="136"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="138"/>
-      <c r="I70" s="137"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="139"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="136"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="137"/>
-      <c r="H71" s="138"/>
-      <c r="I71" s="137"/>
-      <c r="J71" s="137"/>
-      <c r="K71" s="139"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="136"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="137"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="137"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="139"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="136"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="138"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="137"/>
-      <c r="K73" s="139"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="136"/>
-      <c r="C74" s="142" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" s="145" t="s">
-        <v>112</v>
-      </c>
-      <c r="E74" s="142">
+      <c r="D74" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="141">
         <f>1/3600000000</f>
         <v>2.7777777777777777E-10</v>
       </c>
-      <c r="F74" s="142" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="137"/>
-      <c r="H74" s="138"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="137"/>
-      <c r="K74" s="139"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="136"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="137"/>
-      <c r="E75" s="137"/>
-      <c r="F75" s="137"/>
-      <c r="G75" s="137"/>
-      <c r="H75" s="138"/>
-      <c r="I75" s="137"/>
-      <c r="J75" s="137"/>
-      <c r="K75" s="139"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="136"/>
-      <c r="C76" s="145" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="145" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="137">
+      <c r="F74" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" s="136"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="136"/>
+      <c r="J74" s="136"/>
+      <c r="K74" s="138"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="135"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="136"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="136"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="136"/>
+      <c r="J75" s="136"/>
+      <c r="K75" s="138"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="135"/>
+      <c r="C76" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="136">
         <v>50</v>
       </c>
-      <c r="F76" s="145" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="137"/>
-      <c r="H76" s="138"/>
-      <c r="I76" s="137"/>
-      <c r="J76" s="137"/>
-      <c r="K76" s="171" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="136"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="145" t="s">
-        <v>116</v>
-      </c>
-      <c r="E77" s="137"/>
-      <c r="F77" s="137"/>
-      <c r="G77" s="137"/>
-      <c r="H77" s="138"/>
-      <c r="I77" s="137"/>
-      <c r="J77" s="137"/>
-      <c r="K77" s="139"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="136"/>
-      <c r="C78" s="137"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="137"/>
-      <c r="F78" s="137"/>
-      <c r="G78" s="137"/>
-      <c r="H78" s="138"/>
-      <c r="I78" s="137"/>
-      <c r="J78" s="137"/>
-      <c r="K78" s="139"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="136"/>
-      <c r="C79" s="137"/>
-      <c r="D79" s="137"/>
-      <c r="E79" s="137"/>
-      <c r="F79" s="137"/>
-      <c r="G79" s="137"/>
-      <c r="H79" s="138"/>
-      <c r="I79" s="137"/>
-      <c r="J79" s="137"/>
-      <c r="K79" s="139"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="136"/>
-      <c r="C80" s="137"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="137"/>
-      <c r="G80" s="137"/>
-      <c r="H80" s="138"/>
-      <c r="I80" s="137"/>
-      <c r="J80" s="137"/>
-      <c r="K80" s="139"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="136"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="138"/>
-      <c r="I81" s="137"/>
-      <c r="J81" s="137"/>
-      <c r="K81" s="139"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="136"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="138"/>
-      <c r="I82" s="137"/>
-      <c r="J82" s="137"/>
-      <c r="K82" s="139"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="136"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="138"/>
-      <c r="I83" s="137"/>
-      <c r="J83" s="137"/>
-      <c r="K83" s="139"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="136"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="138"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="137"/>
-      <c r="K84" s="139"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="136"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="138"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="137"/>
-      <c r="K85" s="139"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="136"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="138"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137"/>
-      <c r="K86" s="139"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="136"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="138"/>
-      <c r="I87" s="137"/>
-      <c r="J87" s="137"/>
-      <c r="K87" s="139"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="136"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="138"/>
-      <c r="I88" s="137"/>
-      <c r="J88" s="137"/>
-      <c r="K88" s="139"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="136"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="137"/>
-      <c r="H89" s="138"/>
-      <c r="I89" s="137"/>
-      <c r="J89" s="137"/>
-      <c r="K89" s="139"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="136"/>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="138"/>
-      <c r="I90" s="137"/>
-      <c r="J90" s="137"/>
-      <c r="K90" s="139"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="136"/>
-      <c r="C91" s="137"/>
-      <c r="D91" s="137"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="137"/>
-      <c r="G91" s="137"/>
-      <c r="H91" s="138"/>
-      <c r="I91" s="137"/>
-      <c r="J91" s="137"/>
-      <c r="K91" s="139"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="136"/>
-      <c r="C92" s="137"/>
-      <c r="D92" s="137"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="137"/>
-      <c r="H92" s="138"/>
-      <c r="I92" s="137"/>
-      <c r="J92" s="137"/>
-      <c r="K92" s="139"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="136"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="138"/>
-      <c r="I93" s="137"/>
-      <c r="J93" s="137"/>
-      <c r="K93" s="139"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="136"/>
-      <c r="C94" s="137"/>
-      <c r="D94" s="137"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="137"/>
-      <c r="G94" s="137"/>
-      <c r="H94" s="138"/>
-      <c r="I94" s="137"/>
-      <c r="J94" s="137"/>
-      <c r="K94" s="139"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="136"/>
-      <c r="C95" s="137"/>
-      <c r="D95" s="137"/>
-      <c r="E95" s="137"/>
-      <c r="F95" s="137"/>
-      <c r="G95" s="137"/>
-      <c r="H95" s="138"/>
-      <c r="I95" s="137"/>
-      <c r="J95" s="137"/>
-      <c r="K95" s="139"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B96" s="136"/>
-      <c r="C96" s="137"/>
-      <c r="D96" s="137"/>
-      <c r="E96" s="137"/>
-      <c r="F96" s="137"/>
-      <c r="G96" s="137"/>
-      <c r="H96" s="138"/>
-      <c r="I96" s="137"/>
-      <c r="J96" s="137"/>
-      <c r="K96" s="139"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B97" s="136"/>
-      <c r="C97" s="137"/>
-      <c r="D97" s="137"/>
-      <c r="E97" s="137"/>
-      <c r="F97" s="137"/>
-      <c r="G97" s="137"/>
-      <c r="H97" s="138"/>
-      <c r="I97" s="137"/>
-      <c r="J97" s="137"/>
-      <c r="K97" s="139"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="136"/>
-      <c r="C98" s="137"/>
-      <c r="D98" s="137"/>
-      <c r="E98" s="137"/>
-      <c r="F98" s="137"/>
-      <c r="G98" s="137"/>
-      <c r="H98" s="138"/>
-      <c r="I98" s="137"/>
-      <c r="J98" s="137"/>
-      <c r="K98" s="139"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="136"/>
-      <c r="C99" s="137"/>
-      <c r="D99" s="137"/>
-      <c r="E99" s="137"/>
-      <c r="F99" s="137"/>
-      <c r="G99" s="137"/>
-      <c r="H99" s="138"/>
-      <c r="I99" s="137"/>
-      <c r="J99" s="137"/>
-      <c r="K99" s="139"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="136"/>
-      <c r="C100" s="137"/>
-      <c r="D100" s="137"/>
-      <c r="E100" s="137"/>
-      <c r="F100" s="137"/>
-      <c r="G100" s="137"/>
-      <c r="H100" s="138"/>
-      <c r="I100" s="137"/>
-      <c r="J100" s="137"/>
-      <c r="K100" s="139"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="136"/>
-      <c r="C101" s="137"/>
-      <c r="D101" s="137"/>
-      <c r="E101" s="137"/>
-      <c r="F101" s="137"/>
-      <c r="G101" s="137"/>
-      <c r="H101" s="138"/>
-      <c r="I101" s="137"/>
-      <c r="J101" s="137"/>
-      <c r="K101" s="139"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="136"/>
-      <c r="C102" s="137"/>
-      <c r="D102" s="137"/>
-      <c r="E102" s="137"/>
-      <c r="F102" s="137"/>
-      <c r="G102" s="137"/>
-      <c r="H102" s="138"/>
-      <c r="I102" s="137"/>
-      <c r="J102" s="137"/>
-      <c r="K102" s="139"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="136"/>
-      <c r="C103" s="137"/>
-      <c r="D103" s="137"/>
-      <c r="E103" s="137"/>
-      <c r="F103" s="137"/>
-      <c r="G103" s="137"/>
-      <c r="H103" s="138"/>
-      <c r="I103" s="137"/>
-      <c r="J103" s="137"/>
-      <c r="K103" s="139"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="136"/>
-      <c r="C104" s="137"/>
-      <c r="D104" s="137"/>
-      <c r="E104" s="137"/>
-      <c r="F104" s="137"/>
-      <c r="G104" s="137"/>
-      <c r="H104" s="138"/>
-      <c r="I104" s="137"/>
-      <c r="J104" s="137"/>
-      <c r="K104" s="139"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="136"/>
-      <c r="C105" s="137"/>
-      <c r="D105" s="137"/>
-      <c r="E105" s="137"/>
-      <c r="F105" s="137"/>
-      <c r="G105" s="137"/>
-      <c r="H105" s="138"/>
-      <c r="I105" s="137"/>
-      <c r="J105" s="137"/>
-      <c r="K105" s="139"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="136"/>
-      <c r="C106" s="137"/>
-      <c r="D106" s="137"/>
-      <c r="E106" s="137"/>
-      <c r="F106" s="137"/>
-      <c r="G106" s="137"/>
-      <c r="H106" s="138"/>
-      <c r="I106" s="137"/>
-      <c r="J106" s="137"/>
-      <c r="K106" s="139"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="136"/>
-      <c r="C107" s="137"/>
-      <c r="D107" s="137"/>
-      <c r="E107" s="137"/>
-      <c r="F107" s="137"/>
-      <c r="G107" s="137"/>
-      <c r="H107" s="138"/>
-      <c r="I107" s="137"/>
-      <c r="J107" s="137"/>
-      <c r="K107" s="139"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="136"/>
-      <c r="C108" s="137"/>
-      <c r="D108" s="137"/>
-      <c r="E108" s="137"/>
-      <c r="F108" s="137"/>
-      <c r="G108" s="137"/>
-      <c r="H108" s="138"/>
-      <c r="I108" s="137"/>
-      <c r="J108" s="137"/>
-      <c r="K108" s="139"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="136"/>
-      <c r="C109" s="137"/>
-      <c r="D109" s="137"/>
-      <c r="E109" s="137"/>
-      <c r="F109" s="137"/>
-      <c r="G109" s="137"/>
-      <c r="H109" s="138"/>
-      <c r="I109" s="137"/>
-      <c r="J109" s="137"/>
-      <c r="K109" s="139"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="136"/>
-      <c r="C110" s="137"/>
-      <c r="D110" s="137"/>
-      <c r="E110" s="137"/>
-      <c r="F110" s="137"/>
-      <c r="G110" s="137"/>
-      <c r="H110" s="138"/>
-      <c r="I110" s="137"/>
-      <c r="J110" s="137"/>
-      <c r="K110" s="139"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="136"/>
-      <c r="C111" s="137"/>
-      <c r="D111" s="137"/>
-      <c r="E111" s="137"/>
-      <c r="F111" s="137"/>
-      <c r="G111" s="137"/>
-      <c r="H111" s="138"/>
-      <c r="I111" s="137"/>
-      <c r="J111" s="137"/>
-      <c r="K111" s="139"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="136"/>
-      <c r="C112" s="137"/>
-      <c r="D112" s="137"/>
-      <c r="E112" s="137"/>
-      <c r="F112" s="137"/>
-      <c r="G112" s="137"/>
-      <c r="H112" s="138"/>
-      <c r="I112" s="137"/>
-      <c r="J112" s="137"/>
-      <c r="K112" s="139"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="136"/>
-      <c r="C113" s="137"/>
-      <c r="D113" s="137"/>
-      <c r="E113" s="137"/>
-      <c r="F113" s="137"/>
-      <c r="G113" s="137"/>
-      <c r="H113" s="138"/>
-      <c r="I113" s="137"/>
-      <c r="J113" s="137"/>
-      <c r="K113" s="139"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="136"/>
-      <c r="C114" s="137"/>
-      <c r="D114" s="137"/>
-      <c r="E114" s="137"/>
-      <c r="F114" s="137"/>
-      <c r="G114" s="137"/>
-      <c r="H114" s="138"/>
-      <c r="I114" s="137"/>
-      <c r="J114" s="137"/>
-      <c r="K114" s="139"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="136"/>
-      <c r="C115" s="137"/>
-      <c r="D115" s="137"/>
-      <c r="E115" s="137"/>
-      <c r="F115" s="137"/>
-      <c r="G115" s="137"/>
-      <c r="H115" s="138"/>
-      <c r="I115" s="137"/>
-      <c r="J115" s="137"/>
-      <c r="K115" s="139"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="136"/>
-      <c r="C116" s="137"/>
-      <c r="D116" s="137"/>
-      <c r="E116" s="137"/>
-      <c r="F116" s="137"/>
-      <c r="G116" s="137"/>
-      <c r="H116" s="138"/>
-      <c r="I116" s="137"/>
-      <c r="J116" s="137"/>
-      <c r="K116" s="139"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="136"/>
-      <c r="C117" s="137"/>
-      <c r="D117" s="137"/>
-      <c r="E117" s="137"/>
-      <c r="F117" s="137"/>
-      <c r="G117" s="137"/>
-      <c r="H117" s="138"/>
-      <c r="I117" s="137"/>
-      <c r="J117" s="137"/>
-      <c r="K117" s="139"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="136"/>
-      <c r="C118" s="137"/>
-      <c r="D118" s="137"/>
-      <c r="E118" s="137"/>
-      <c r="F118" s="137"/>
-      <c r="G118" s="137"/>
-      <c r="H118" s="138"/>
-      <c r="I118" s="137"/>
-      <c r="J118" s="137"/>
-      <c r="K118" s="139"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="136"/>
-      <c r="C119" s="137"/>
-      <c r="D119" s="137"/>
-      <c r="E119" s="137"/>
-      <c r="F119" s="137"/>
-      <c r="G119" s="137"/>
-      <c r="H119" s="138"/>
-      <c r="I119" s="137"/>
-      <c r="J119" s="137"/>
-      <c r="K119" s="139"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="136"/>
-      <c r="C120" s="137"/>
-      <c r="D120" s="137"/>
-      <c r="E120" s="137"/>
-      <c r="F120" s="137"/>
-      <c r="G120" s="137"/>
-      <c r="H120" s="138"/>
-      <c r="I120" s="137"/>
-      <c r="J120" s="137"/>
-      <c r="K120" s="139"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" s="136"/>
-      <c r="C121" s="137"/>
-      <c r="D121" s="137"/>
-      <c r="E121" s="137"/>
-      <c r="F121" s="137"/>
-      <c r="G121" s="137"/>
-      <c r="H121" s="138"/>
-      <c r="I121" s="137"/>
-      <c r="J121" s="137"/>
-      <c r="K121" s="139"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="136"/>
-      <c r="C122" s="137"/>
-      <c r="D122" s="137"/>
-      <c r="E122" s="137"/>
-      <c r="F122" s="137"/>
-      <c r="G122" s="137"/>
-      <c r="H122" s="138"/>
-      <c r="I122" s="137"/>
-      <c r="J122" s="137"/>
-      <c r="K122" s="139"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="136"/>
-      <c r="C123" s="137"/>
-      <c r="D123" s="137"/>
-      <c r="E123" s="137"/>
-      <c r="F123" s="137"/>
-      <c r="G123" s="137"/>
-      <c r="H123" s="138"/>
-      <c r="I123" s="137"/>
-      <c r="J123" s="137"/>
-      <c r="K123" s="139"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" s="136"/>
-      <c r="C124" s="137"/>
-      <c r="D124" s="137"/>
-      <c r="E124" s="137"/>
-      <c r="F124" s="137"/>
-      <c r="G124" s="137"/>
-      <c r="H124" s="138"/>
-      <c r="I124" s="137"/>
-      <c r="J124" s="137"/>
-      <c r="K124" s="139"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="136"/>
-      <c r="C125" s="137"/>
-      <c r="D125" s="137"/>
-      <c r="E125" s="137"/>
-      <c r="F125" s="137"/>
-      <c r="G125" s="137"/>
-      <c r="H125" s="138"/>
-      <c r="I125" s="137"/>
-      <c r="J125" s="137"/>
-      <c r="K125" s="139"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="136"/>
-      <c r="C126" s="137"/>
-      <c r="D126" s="137"/>
-      <c r="E126" s="137"/>
-      <c r="F126" s="137"/>
-      <c r="G126" s="137"/>
-      <c r="H126" s="138"/>
-      <c r="I126" s="137"/>
-      <c r="J126" s="137"/>
-      <c r="K126" s="139"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="136"/>
-      <c r="C127" s="137"/>
-      <c r="D127" s="137"/>
-      <c r="E127" s="137"/>
-      <c r="F127" s="137"/>
-      <c r="G127" s="137"/>
-      <c r="H127" s="138"/>
-      <c r="I127" s="137"/>
-      <c r="J127" s="137"/>
-      <c r="K127" s="139"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B128" s="136"/>
-      <c r="C128" s="137"/>
-      <c r="D128" s="137"/>
-      <c r="E128" s="137"/>
-      <c r="F128" s="137"/>
-      <c r="G128" s="137"/>
-      <c r="H128" s="138"/>
-      <c r="I128" s="137"/>
-      <c r="J128" s="137"/>
-      <c r="K128" s="139"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" s="136"/>
-      <c r="C129" s="137"/>
-      <c r="D129" s="137"/>
-      <c r="E129" s="137"/>
-      <c r="F129" s="137"/>
-      <c r="G129" s="137"/>
-      <c r="H129" s="138"/>
-      <c r="I129" s="137"/>
-      <c r="J129" s="137"/>
-      <c r="K129" s="139"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="136"/>
-      <c r="C130" s="137"/>
-      <c r="D130" s="137"/>
-      <c r="E130" s="137"/>
-      <c r="F130" s="137"/>
-      <c r="G130" s="137"/>
-      <c r="H130" s="138"/>
-      <c r="I130" s="137"/>
-      <c r="J130" s="137"/>
-      <c r="K130" s="139"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="136"/>
-      <c r="C131" s="137"/>
-      <c r="D131" s="137"/>
-      <c r="E131" s="137"/>
-      <c r="F131" s="137"/>
-      <c r="G131" s="137"/>
-      <c r="H131" s="138"/>
-      <c r="I131" s="137"/>
-      <c r="J131" s="137"/>
-      <c r="K131" s="139"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="136"/>
-      <c r="C132" s="137"/>
-      <c r="D132" s="137"/>
-      <c r="E132" s="137"/>
-      <c r="F132" s="137"/>
-      <c r="G132" s="137"/>
-      <c r="H132" s="138"/>
-      <c r="I132" s="137"/>
-      <c r="J132" s="137"/>
-      <c r="K132" s="139"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="136"/>
-      <c r="C133" s="137"/>
-      <c r="D133" s="137"/>
-      <c r="E133" s="137"/>
-      <c r="F133" s="137"/>
-      <c r="G133" s="137"/>
-      <c r="H133" s="138"/>
-      <c r="I133" s="137"/>
-      <c r="J133" s="137"/>
-      <c r="K133" s="139"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" s="136"/>
-      <c r="C134" s="137"/>
-      <c r="D134" s="137"/>
-      <c r="E134" s="137"/>
-      <c r="F134" s="137"/>
-      <c r="G134" s="137"/>
-      <c r="H134" s="138"/>
-      <c r="I134" s="137"/>
-      <c r="J134" s="137"/>
-      <c r="K134" s="139"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="136"/>
-      <c r="C135" s="137"/>
-      <c r="D135" s="137"/>
-      <c r="E135" s="137"/>
-      <c r="F135" s="137"/>
-      <c r="G135" s="137"/>
-      <c r="H135" s="138"/>
-      <c r="I135" s="137"/>
-      <c r="J135" s="137"/>
-      <c r="K135" s="139"/>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B136" s="136"/>
-      <c r="C136" s="137"/>
-      <c r="D136" s="137"/>
-      <c r="E136" s="137"/>
-      <c r="F136" s="137"/>
-      <c r="G136" s="137"/>
-      <c r="H136" s="138"/>
-      <c r="I136" s="137"/>
-      <c r="J136" s="137"/>
-      <c r="K136" s="139"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B137" s="136"/>
-      <c r="C137" s="137"/>
-      <c r="D137" s="137"/>
-      <c r="E137" s="137"/>
-      <c r="F137" s="137"/>
-      <c r="G137" s="137"/>
-      <c r="H137" s="138"/>
-      <c r="I137" s="137"/>
-      <c r="J137" s="137"/>
-      <c r="K137" s="139"/>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B138" s="136"/>
-      <c r="C138" s="137"/>
-      <c r="D138" s="137"/>
-      <c r="E138" s="137"/>
-      <c r="F138" s="137"/>
-      <c r="G138" s="137"/>
-      <c r="H138" s="138"/>
-      <c r="I138" s="137"/>
-      <c r="J138" s="137"/>
-      <c r="K138" s="139"/>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B139" s="136"/>
-      <c r="C139" s="137"/>
-      <c r="D139" s="137"/>
-      <c r="E139" s="137"/>
-      <c r="F139" s="137"/>
-      <c r="G139" s="137"/>
-      <c r="H139" s="138"/>
-      <c r="I139" s="137"/>
-      <c r="J139" s="137"/>
-      <c r="K139" s="139"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B140" s="136"/>
-      <c r="C140" s="137"/>
-      <c r="D140" s="137"/>
-      <c r="E140" s="137"/>
-      <c r="F140" s="137"/>
-      <c r="G140" s="137"/>
-      <c r="H140" s="138"/>
-      <c r="I140" s="137"/>
-      <c r="J140" s="137"/>
-      <c r="K140" s="139"/>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B141" s="136"/>
-      <c r="C141" s="137"/>
-      <c r="D141" s="137"/>
-      <c r="E141" s="137"/>
-      <c r="F141" s="137"/>
-      <c r="G141" s="137"/>
-      <c r="H141" s="138"/>
-      <c r="I141" s="137"/>
-      <c r="J141" s="137"/>
-      <c r="K141" s="139"/>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B142" s="136"/>
-      <c r="C142" s="137"/>
-      <c r="D142" s="137"/>
-      <c r="E142" s="137"/>
-      <c r="F142" s="137"/>
-      <c r="G142" s="137"/>
-      <c r="H142" s="138"/>
-      <c r="I142" s="137"/>
-      <c r="J142" s="137"/>
-      <c r="K142" s="139"/>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B143" s="136"/>
-      <c r="C143" s="137"/>
-      <c r="D143" s="137"/>
-      <c r="E143" s="137"/>
-      <c r="F143" s="137"/>
-      <c r="G143" s="137"/>
-      <c r="H143" s="138"/>
-      <c r="I143" s="137"/>
-      <c r="J143" s="137"/>
-      <c r="K143" s="139"/>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B144" s="136"/>
-      <c r="C144" s="137"/>
-      <c r="D144" s="137"/>
-      <c r="E144" s="137"/>
-      <c r="F144" s="137"/>
-      <c r="G144" s="137"/>
-      <c r="H144" s="138"/>
-      <c r="I144" s="137"/>
-      <c r="J144" s="137"/>
-      <c r="K144" s="139"/>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B145" s="136"/>
-      <c r="C145" s="137"/>
-      <c r="D145" s="137"/>
-      <c r="E145" s="137"/>
-      <c r="F145" s="137"/>
-      <c r="G145" s="137"/>
-      <c r="H145" s="138"/>
-      <c r="I145" s="137"/>
-      <c r="J145" s="137"/>
-      <c r="K145" s="139"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="136"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
-      <c r="G146" s="137"/>
-      <c r="H146" s="138"/>
-      <c r="I146" s="137"/>
-      <c r="J146" s="137"/>
-      <c r="K146" s="139"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B147" s="136"/>
-      <c r="C147" s="137"/>
-      <c r="D147" s="137"/>
-      <c r="E147" s="137"/>
-      <c r="F147" s="137"/>
-      <c r="G147" s="137"/>
-      <c r="H147" s="138"/>
-      <c r="I147" s="137"/>
-      <c r="J147" s="137"/>
-      <c r="K147" s="139"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B148" s="136"/>
-      <c r="C148" s="137"/>
-      <c r="D148" s="137"/>
-      <c r="E148" s="137"/>
-      <c r="F148" s="137"/>
-      <c r="G148" s="137"/>
-      <c r="H148" s="138"/>
-      <c r="I148" s="137"/>
-      <c r="J148" s="137"/>
-      <c r="K148" s="139"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B149" s="136"/>
-      <c r="C149" s="137"/>
-      <c r="D149" s="137"/>
-      <c r="E149" s="137"/>
-      <c r="F149" s="137"/>
-      <c r="G149" s="137"/>
-      <c r="H149" s="138"/>
-      <c r="I149" s="137"/>
-      <c r="J149" s="137"/>
-      <c r="K149" s="139"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B150" s="136"/>
-      <c r="C150" s="137"/>
-      <c r="D150" s="137"/>
-      <c r="E150" s="137"/>
-      <c r="F150" s="137"/>
-      <c r="G150" s="137"/>
-      <c r="H150" s="138"/>
-      <c r="I150" s="137"/>
-      <c r="J150" s="137"/>
-      <c r="K150" s="139"/>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B151" s="136"/>
-      <c r="C151" s="137"/>
-      <c r="D151" s="137"/>
-      <c r="E151" s="137"/>
-      <c r="F151" s="137"/>
-      <c r="G151" s="137"/>
-      <c r="H151" s="138"/>
-      <c r="I151" s="137"/>
-      <c r="J151" s="137"/>
-      <c r="K151" s="139"/>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B152" s="136"/>
-      <c r="C152" s="137"/>
-      <c r="D152" s="137"/>
-      <c r="E152" s="137"/>
-      <c r="F152" s="137"/>
-      <c r="G152" s="137"/>
-      <c r="H152" s="138"/>
-      <c r="I152" s="137"/>
-      <c r="J152" s="137"/>
-      <c r="K152" s="139"/>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B153" s="136"/>
-      <c r="C153" s="137"/>
-      <c r="D153" s="137"/>
-      <c r="E153" s="137"/>
-      <c r="F153" s="137"/>
-      <c r="G153" s="137"/>
-      <c r="H153" s="138"/>
-      <c r="I153" s="137"/>
-      <c r="J153" s="137"/>
-      <c r="K153" s="139"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B154" s="136"/>
-      <c r="C154" s="137"/>
-      <c r="D154" s="137"/>
-      <c r="E154" s="137"/>
-      <c r="F154" s="137"/>
-      <c r="G154" s="137"/>
-      <c r="H154" s="138"/>
-      <c r="I154" s="137"/>
-      <c r="J154" s="137"/>
-      <c r="K154" s="139"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B155" s="136"/>
-      <c r="C155" s="137"/>
-      <c r="D155" s="137"/>
-      <c r="E155" s="137"/>
-      <c r="F155" s="137"/>
-      <c r="G155" s="137"/>
-      <c r="H155" s="138"/>
-      <c r="I155" s="137"/>
-      <c r="J155" s="137"/>
-      <c r="K155" s="139"/>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B156" s="136"/>
-      <c r="C156" s="137"/>
-      <c r="D156" s="137"/>
-      <c r="E156" s="137"/>
-      <c r="F156" s="137"/>
-      <c r="G156" s="137"/>
-      <c r="H156" s="138"/>
-      <c r="I156" s="137"/>
-      <c r="J156" s="137"/>
-      <c r="K156" s="139"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B157" s="136"/>
-      <c r="C157" s="137"/>
-      <c r="D157" s="137"/>
-      <c r="E157" s="137"/>
-      <c r="F157" s="137"/>
-      <c r="G157" s="137"/>
-      <c r="H157" s="138"/>
-      <c r="I157" s="137"/>
-      <c r="J157" s="137"/>
-      <c r="K157" s="139"/>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B158" s="136"/>
-      <c r="C158" s="137"/>
-      <c r="D158" s="137"/>
-      <c r="E158" s="137"/>
-      <c r="F158" s="137"/>
-      <c r="G158" s="137"/>
-      <c r="H158" s="138"/>
-      <c r="I158" s="137"/>
-      <c r="J158" s="137"/>
-      <c r="K158" s="139"/>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B159" s="136"/>
-      <c r="C159" s="137"/>
-      <c r="D159" s="137"/>
-      <c r="E159" s="137"/>
-      <c r="F159" s="137"/>
-      <c r="G159" s="137"/>
-      <c r="H159" s="138"/>
-      <c r="I159" s="137"/>
-      <c r="J159" s="137"/>
-      <c r="K159" s="139"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B160" s="136"/>
-      <c r="C160" s="137"/>
-      <c r="D160" s="137"/>
-      <c r="E160" s="137"/>
-      <c r="F160" s="137"/>
-      <c r="G160" s="137"/>
-      <c r="H160" s="138"/>
-      <c r="I160" s="137"/>
-      <c r="J160" s="137"/>
-      <c r="K160" s="139"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B161" s="136"/>
-      <c r="C161" s="137"/>
-      <c r="D161" s="137"/>
-      <c r="E161" s="137"/>
-      <c r="F161" s="137"/>
-      <c r="G161" s="137"/>
-      <c r="H161" s="138"/>
-      <c r="I161" s="137"/>
-      <c r="J161" s="137"/>
-      <c r="K161" s="139"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B162" s="136"/>
-      <c r="C162" s="137"/>
-      <c r="D162" s="137"/>
-      <c r="E162" s="137"/>
-      <c r="F162" s="137"/>
-      <c r="G162" s="137"/>
-      <c r="H162" s="138"/>
-      <c r="I162" s="137"/>
-      <c r="J162" s="137"/>
-      <c r="K162" s="139"/>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B163" s="136"/>
-      <c r="C163" s="137"/>
-      <c r="D163" s="137"/>
-      <c r="E163" s="137"/>
-      <c r="F163" s="137"/>
-      <c r="G163" s="137"/>
-      <c r="H163" s="138"/>
-      <c r="I163" s="137"/>
-      <c r="J163" s="137"/>
-      <c r="K163" s="139"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B164" s="136"/>
-      <c r="C164" s="137"/>
-      <c r="D164" s="137"/>
-      <c r="E164" s="137"/>
-      <c r="F164" s="137"/>
-      <c r="G164" s="137"/>
-      <c r="H164" s="138"/>
-      <c r="I164" s="137"/>
-      <c r="J164" s="137"/>
-      <c r="K164" s="139"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B165" s="136"/>
-      <c r="C165" s="137"/>
-      <c r="D165" s="137"/>
-      <c r="E165" s="137"/>
-      <c r="F165" s="137"/>
-      <c r="G165" s="137"/>
-      <c r="H165" s="138"/>
-      <c r="I165" s="137"/>
-      <c r="J165" s="137"/>
-      <c r="K165" s="139"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B166" s="136"/>
-      <c r="C166" s="137"/>
-      <c r="D166" s="137"/>
-      <c r="E166" s="137"/>
-      <c r="F166" s="137"/>
-      <c r="G166" s="137"/>
-      <c r="H166" s="138"/>
-      <c r="I166" s="137"/>
-      <c r="J166" s="137"/>
-      <c r="K166" s="139"/>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B167" s="136"/>
-      <c r="C167" s="137"/>
-      <c r="D167" s="137"/>
-      <c r="E167" s="137"/>
-      <c r="F167" s="137"/>
-      <c r="G167" s="137"/>
-      <c r="H167" s="138"/>
-      <c r="I167" s="137"/>
-      <c r="J167" s="137"/>
-      <c r="K167" s="139"/>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B168" s="136"/>
-      <c r="C168" s="137"/>
-      <c r="D168" s="137"/>
-      <c r="E168" s="137"/>
-      <c r="F168" s="137"/>
-      <c r="G168" s="137"/>
-      <c r="H168" s="138"/>
-      <c r="I168" s="137"/>
-      <c r="J168" s="137"/>
-      <c r="K168" s="139"/>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B169" s="136"/>
-      <c r="C169" s="137"/>
-      <c r="D169" s="137"/>
-      <c r="E169" s="137"/>
-      <c r="F169" s="137"/>
-      <c r="G169" s="137"/>
-      <c r="H169" s="138"/>
-      <c r="I169" s="137"/>
-      <c r="J169" s="137"/>
-      <c r="K169" s="139"/>
+      <c r="F76" s="144" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" s="136"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="136"/>
+      <c r="J76" s="136"/>
+      <c r="K76" s="170" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="135"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="144" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="136"/>
+      <c r="J77" s="136"/>
+      <c r="K77" s="138"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="135"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="136"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="136"/>
+      <c r="J78" s="136"/>
+      <c r="K78" s="138"/>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="135"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="136"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
+      <c r="K79" s="138"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="135"/>
+      <c r="C80" s="136"/>
+      <c r="D80" s="136"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="136"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="136"/>
+      <c r="J80" s="136"/>
+      <c r="K80" s="138"/>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="135"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="136"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="136"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="138"/>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="135"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="136"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="136"/>
+      <c r="J82" s="136"/>
+      <c r="K82" s="138"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="135"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
+      <c r="G83" s="136"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="136"/>
+      <c r="J83" s="136"/>
+      <c r="K83" s="138"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="135"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="136"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="136"/>
+      <c r="J84" s="136"/>
+      <c r="K84" s="138"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="135"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
+      <c r="G85" s="136"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="136"/>
+      <c r="J85" s="136"/>
+      <c r="K85" s="138"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="135"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="136"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="136"/>
+      <c r="J86" s="136"/>
+      <c r="K86" s="138"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="135"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="136"/>
+      <c r="H87" s="137"/>
+      <c r="I87" s="136"/>
+      <c r="J87" s="136"/>
+      <c r="K87" s="138"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="135"/>
+      <c r="C88" s="136"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="136"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="136"/>
+      <c r="J88" s="136"/>
+      <c r="K88" s="138"/>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="135"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
+      <c r="H89" s="137"/>
+      <c r="I89" s="136"/>
+      <c r="J89" s="136"/>
+      <c r="K89" s="138"/>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="135"/>
+      <c r="C90" s="136"/>
+      <c r="D90" s="136"/>
+      <c r="E90" s="136"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="136"/>
+      <c r="J90" s="136"/>
+      <c r="K90" s="138"/>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="135"/>
+      <c r="C91" s="136"/>
+      <c r="D91" s="136"/>
+      <c r="E91" s="136"/>
+      <c r="F91" s="136"/>
+      <c r="G91" s="136"/>
+      <c r="H91" s="137"/>
+      <c r="I91" s="136"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="138"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="135"/>
+      <c r="C92" s="136"/>
+      <c r="D92" s="136"/>
+      <c r="E92" s="136"/>
+      <c r="F92" s="136"/>
+      <c r="G92" s="136"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="136"/>
+      <c r="J92" s="136"/>
+      <c r="K92" s="138"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="135"/>
+      <c r="C93" s="136"/>
+      <c r="D93" s="136"/>
+      <c r="E93" s="136"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="136"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="136"/>
+      <c r="J93" s="136"/>
+      <c r="K93" s="138"/>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="135"/>
+      <c r="C94" s="136"/>
+      <c r="D94" s="136"/>
+      <c r="E94" s="136"/>
+      <c r="F94" s="136"/>
+      <c r="G94" s="136"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="136"/>
+      <c r="J94" s="136"/>
+      <c r="K94" s="138"/>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="135"/>
+      <c r="C95" s="136"/>
+      <c r="D95" s="136"/>
+      <c r="E95" s="136"/>
+      <c r="F95" s="136"/>
+      <c r="G95" s="136"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="136"/>
+      <c r="J95" s="136"/>
+      <c r="K95" s="138"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="135"/>
+      <c r="C96" s="136"/>
+      <c r="D96" s="136"/>
+      <c r="E96" s="136"/>
+      <c r="F96" s="136"/>
+      <c r="G96" s="136"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="136"/>
+      <c r="J96" s="136"/>
+      <c r="K96" s="138"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="135"/>
+      <c r="C97" s="136"/>
+      <c r="D97" s="136"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="136"/>
+      <c r="G97" s="136"/>
+      <c r="H97" s="137"/>
+      <c r="I97" s="136"/>
+      <c r="J97" s="136"/>
+      <c r="K97" s="138"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="135"/>
+      <c r="C98" s="136"/>
+      <c r="D98" s="136"/>
+      <c r="E98" s="136"/>
+      <c r="F98" s="136"/>
+      <c r="G98" s="136"/>
+      <c r="H98" s="137"/>
+      <c r="I98" s="136"/>
+      <c r="J98" s="136"/>
+      <c r="K98" s="138"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="135"/>
+      <c r="C99" s="136"/>
+      <c r="D99" s="136"/>
+      <c r="E99" s="136"/>
+      <c r="F99" s="136"/>
+      <c r="G99" s="136"/>
+      <c r="H99" s="137"/>
+      <c r="I99" s="136"/>
+      <c r="J99" s="136"/>
+      <c r="K99" s="138"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="135"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="136"/>
+      <c r="G100" s="136"/>
+      <c r="H100" s="137"/>
+      <c r="I100" s="136"/>
+      <c r="J100" s="136"/>
+      <c r="K100" s="138"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="135"/>
+      <c r="C101" s="136"/>
+      <c r="D101" s="136"/>
+      <c r="E101" s="136"/>
+      <c r="F101" s="136"/>
+      <c r="G101" s="136"/>
+      <c r="H101" s="137"/>
+      <c r="I101" s="136"/>
+      <c r="J101" s="136"/>
+      <c r="K101" s="138"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="135"/>
+      <c r="C102" s="136"/>
+      <c r="D102" s="136"/>
+      <c r="E102" s="136"/>
+      <c r="F102" s="136"/>
+      <c r="G102" s="136"/>
+      <c r="H102" s="137"/>
+      <c r="I102" s="136"/>
+      <c r="J102" s="136"/>
+      <c r="K102" s="138"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="135"/>
+      <c r="C103" s="136"/>
+      <c r="D103" s="136"/>
+      <c r="E103" s="136"/>
+      <c r="F103" s="136"/>
+      <c r="G103" s="136"/>
+      <c r="H103" s="137"/>
+      <c r="I103" s="136"/>
+      <c r="J103" s="136"/>
+      <c r="K103" s="138"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="135"/>
+      <c r="C104" s="136"/>
+      <c r="D104" s="136"/>
+      <c r="E104" s="136"/>
+      <c r="F104" s="136"/>
+      <c r="G104" s="136"/>
+      <c r="H104" s="137"/>
+      <c r="I104" s="136"/>
+      <c r="J104" s="136"/>
+      <c r="K104" s="138"/>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="135"/>
+      <c r="C105" s="136"/>
+      <c r="D105" s="136"/>
+      <c r="E105" s="136"/>
+      <c r="F105" s="136"/>
+      <c r="G105" s="136"/>
+      <c r="H105" s="137"/>
+      <c r="I105" s="136"/>
+      <c r="J105" s="136"/>
+      <c r="K105" s="138"/>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="135"/>
+      <c r="C106" s="136"/>
+      <c r="D106" s="136"/>
+      <c r="E106" s="136"/>
+      <c r="F106" s="136"/>
+      <c r="G106" s="136"/>
+      <c r="H106" s="137"/>
+      <c r="I106" s="136"/>
+      <c r="J106" s="136"/>
+      <c r="K106" s="138"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="135"/>
+      <c r="C107" s="136"/>
+      <c r="D107" s="136"/>
+      <c r="E107" s="136"/>
+      <c r="F107" s="136"/>
+      <c r="G107" s="136"/>
+      <c r="H107" s="137"/>
+      <c r="I107" s="136"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="138"/>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="135"/>
+      <c r="C108" s="136"/>
+      <c r="D108" s="136"/>
+      <c r="E108" s="136"/>
+      <c r="F108" s="136"/>
+      <c r="G108" s="136"/>
+      <c r="H108" s="137"/>
+      <c r="I108" s="136"/>
+      <c r="J108" s="136"/>
+      <c r="K108" s="138"/>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="135"/>
+      <c r="C109" s="136"/>
+      <c r="D109" s="136"/>
+      <c r="E109" s="136"/>
+      <c r="F109" s="136"/>
+      <c r="G109" s="136"/>
+      <c r="H109" s="137"/>
+      <c r="I109" s="136"/>
+      <c r="J109" s="136"/>
+      <c r="K109" s="138"/>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="135"/>
+      <c r="C110" s="136"/>
+      <c r="D110" s="136"/>
+      <c r="E110" s="136"/>
+      <c r="F110" s="136"/>
+      <c r="G110" s="136"/>
+      <c r="H110" s="137"/>
+      <c r="I110" s="136"/>
+      <c r="J110" s="136"/>
+      <c r="K110" s="138"/>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="135"/>
+      <c r="C111" s="136"/>
+      <c r="D111" s="136"/>
+      <c r="E111" s="136"/>
+      <c r="F111" s="136"/>
+      <c r="G111" s="136"/>
+      <c r="H111" s="137"/>
+      <c r="I111" s="136"/>
+      <c r="J111" s="136"/>
+      <c r="K111" s="138"/>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="135"/>
+      <c r="C112" s="136"/>
+      <c r="D112" s="136"/>
+      <c r="E112" s="136"/>
+      <c r="F112" s="136"/>
+      <c r="G112" s="136"/>
+      <c r="H112" s="137"/>
+      <c r="I112" s="136"/>
+      <c r="J112" s="136"/>
+      <c r="K112" s="138"/>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="135"/>
+      <c r="C113" s="136"/>
+      <c r="D113" s="136"/>
+      <c r="E113" s="136"/>
+      <c r="F113" s="136"/>
+      <c r="G113" s="136"/>
+      <c r="H113" s="137"/>
+      <c r="I113" s="136"/>
+      <c r="J113" s="136"/>
+      <c r="K113" s="138"/>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="135"/>
+      <c r="C114" s="136"/>
+      <c r="D114" s="136"/>
+      <c r="E114" s="136"/>
+      <c r="F114" s="136"/>
+      <c r="G114" s="136"/>
+      <c r="H114" s="137"/>
+      <c r="I114" s="136"/>
+      <c r="J114" s="136"/>
+      <c r="K114" s="138"/>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="135"/>
+      <c r="C115" s="136"/>
+      <c r="D115" s="136"/>
+      <c r="E115" s="136"/>
+      <c r="F115" s="136"/>
+      <c r="G115" s="136"/>
+      <c r="H115" s="137"/>
+      <c r="I115" s="136"/>
+      <c r="J115" s="136"/>
+      <c r="K115" s="138"/>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="135"/>
+      <c r="C116" s="136"/>
+      <c r="D116" s="136"/>
+      <c r="E116" s="136"/>
+      <c r="F116" s="136"/>
+      <c r="G116" s="136"/>
+      <c r="H116" s="137"/>
+      <c r="I116" s="136"/>
+      <c r="J116" s="136"/>
+      <c r="K116" s="138"/>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="135"/>
+      <c r="C117" s="136"/>
+      <c r="D117" s="136"/>
+      <c r="E117" s="136"/>
+      <c r="F117" s="136"/>
+      <c r="G117" s="136"/>
+      <c r="H117" s="137"/>
+      <c r="I117" s="136"/>
+      <c r="J117" s="136"/>
+      <c r="K117" s="138"/>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="135"/>
+      <c r="C118" s="136"/>
+      <c r="D118" s="136"/>
+      <c r="E118" s="136"/>
+      <c r="F118" s="136"/>
+      <c r="G118" s="136"/>
+      <c r="H118" s="137"/>
+      <c r="I118" s="136"/>
+      <c r="J118" s="136"/>
+      <c r="K118" s="138"/>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="135"/>
+      <c r="C119" s="136"/>
+      <c r="D119" s="136"/>
+      <c r="E119" s="136"/>
+      <c r="F119" s="136"/>
+      <c r="G119" s="136"/>
+      <c r="H119" s="137"/>
+      <c r="I119" s="136"/>
+      <c r="J119" s="136"/>
+      <c r="K119" s="138"/>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="135"/>
+      <c r="C120" s="136"/>
+      <c r="D120" s="136"/>
+      <c r="E120" s="136"/>
+      <c r="F120" s="136"/>
+      <c r="G120" s="136"/>
+      <c r="H120" s="137"/>
+      <c r="I120" s="136"/>
+      <c r="J120" s="136"/>
+      <c r="K120" s="138"/>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="135"/>
+      <c r="C121" s="136"/>
+      <c r="D121" s="136"/>
+      <c r="E121" s="136"/>
+      <c r="F121" s="136"/>
+      <c r="G121" s="136"/>
+      <c r="H121" s="137"/>
+      <c r="I121" s="136"/>
+      <c r="J121" s="136"/>
+      <c r="K121" s="138"/>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="135"/>
+      <c r="C122" s="136"/>
+      <c r="D122" s="136"/>
+      <c r="E122" s="136"/>
+      <c r="F122" s="136"/>
+      <c r="G122" s="136"/>
+      <c r="H122" s="137"/>
+      <c r="I122" s="136"/>
+      <c r="J122" s="136"/>
+      <c r="K122" s="138"/>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="135"/>
+      <c r="C123" s="136"/>
+      <c r="D123" s="136"/>
+      <c r="E123" s="136"/>
+      <c r="F123" s="136"/>
+      <c r="G123" s="136"/>
+      <c r="H123" s="137"/>
+      <c r="I123" s="136"/>
+      <c r="J123" s="136"/>
+      <c r="K123" s="138"/>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="135"/>
+      <c r="C124" s="136"/>
+      <c r="D124" s="136"/>
+      <c r="E124" s="136"/>
+      <c r="F124" s="136"/>
+      <c r="G124" s="136"/>
+      <c r="H124" s="137"/>
+      <c r="I124" s="136"/>
+      <c r="J124" s="136"/>
+      <c r="K124" s="138"/>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="135"/>
+      <c r="C125" s="136"/>
+      <c r="D125" s="136"/>
+      <c r="E125" s="136"/>
+      <c r="F125" s="136"/>
+      <c r="G125" s="136"/>
+      <c r="H125" s="137"/>
+      <c r="I125" s="136"/>
+      <c r="J125" s="136"/>
+      <c r="K125" s="138"/>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="135"/>
+      <c r="C126" s="136"/>
+      <c r="D126" s="136"/>
+      <c r="E126" s="136"/>
+      <c r="F126" s="136"/>
+      <c r="G126" s="136"/>
+      <c r="H126" s="137"/>
+      <c r="I126" s="136"/>
+      <c r="J126" s="136"/>
+      <c r="K126" s="138"/>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="135"/>
+      <c r="C127" s="136"/>
+      <c r="D127" s="136"/>
+      <c r="E127" s="136"/>
+      <c r="F127" s="136"/>
+      <c r="G127" s="136"/>
+      <c r="H127" s="137"/>
+      <c r="I127" s="136"/>
+      <c r="J127" s="136"/>
+      <c r="K127" s="138"/>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="135"/>
+      <c r="C128" s="136"/>
+      <c r="D128" s="136"/>
+      <c r="E128" s="136"/>
+      <c r="F128" s="136"/>
+      <c r="G128" s="136"/>
+      <c r="H128" s="137"/>
+      <c r="I128" s="136"/>
+      <c r="J128" s="136"/>
+      <c r="K128" s="138"/>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="135"/>
+      <c r="C129" s="136"/>
+      <c r="D129" s="136"/>
+      <c r="E129" s="136"/>
+      <c r="F129" s="136"/>
+      <c r="G129" s="136"/>
+      <c r="H129" s="137"/>
+      <c r="I129" s="136"/>
+      <c r="J129" s="136"/>
+      <c r="K129" s="138"/>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="135"/>
+      <c r="C130" s="136"/>
+      <c r="D130" s="136"/>
+      <c r="E130" s="136"/>
+      <c r="F130" s="136"/>
+      <c r="G130" s="136"/>
+      <c r="H130" s="137"/>
+      <c r="I130" s="136"/>
+      <c r="J130" s="136"/>
+      <c r="K130" s="138"/>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="135"/>
+      <c r="C131" s="136"/>
+      <c r="D131" s="136"/>
+      <c r="E131" s="136"/>
+      <c r="F131" s="136"/>
+      <c r="G131" s="136"/>
+      <c r="H131" s="137"/>
+      <c r="I131" s="136"/>
+      <c r="J131" s="136"/>
+      <c r="K131" s="138"/>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="135"/>
+      <c r="C132" s="136"/>
+      <c r="D132" s="136"/>
+      <c r="E132" s="136"/>
+      <c r="F132" s="136"/>
+      <c r="G132" s="136"/>
+      <c r="H132" s="137"/>
+      <c r="I132" s="136"/>
+      <c r="J132" s="136"/>
+      <c r="K132" s="138"/>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="135"/>
+      <c r="C133" s="136"/>
+      <c r="D133" s="136"/>
+      <c r="E133" s="136"/>
+      <c r="F133" s="136"/>
+      <c r="G133" s="136"/>
+      <c r="H133" s="137"/>
+      <c r="I133" s="136"/>
+      <c r="J133" s="136"/>
+      <c r="K133" s="138"/>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="135"/>
+      <c r="C134" s="136"/>
+      <c r="D134" s="136"/>
+      <c r="E134" s="136"/>
+      <c r="F134" s="136"/>
+      <c r="G134" s="136"/>
+      <c r="H134" s="137"/>
+      <c r="I134" s="136"/>
+      <c r="J134" s="136"/>
+      <c r="K134" s="138"/>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="135"/>
+      <c r="C135" s="136"/>
+      <c r="D135" s="136"/>
+      <c r="E135" s="136"/>
+      <c r="F135" s="136"/>
+      <c r="G135" s="136"/>
+      <c r="H135" s="137"/>
+      <c r="I135" s="136"/>
+      <c r="J135" s="136"/>
+      <c r="K135" s="138"/>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="135"/>
+      <c r="C136" s="136"/>
+      <c r="D136" s="136"/>
+      <c r="E136" s="136"/>
+      <c r="F136" s="136"/>
+      <c r="G136" s="136"/>
+      <c r="H136" s="137"/>
+      <c r="I136" s="136"/>
+      <c r="J136" s="136"/>
+      <c r="K136" s="138"/>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="135"/>
+      <c r="C137" s="136"/>
+      <c r="D137" s="136"/>
+      <c r="E137" s="136"/>
+      <c r="F137" s="136"/>
+      <c r="G137" s="136"/>
+      <c r="H137" s="137"/>
+      <c r="I137" s="136"/>
+      <c r="J137" s="136"/>
+      <c r="K137" s="138"/>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="135"/>
+      <c r="C138" s="136"/>
+      <c r="D138" s="136"/>
+      <c r="E138" s="136"/>
+      <c r="F138" s="136"/>
+      <c r="G138" s="136"/>
+      <c r="H138" s="137"/>
+      <c r="I138" s="136"/>
+      <c r="J138" s="136"/>
+      <c r="K138" s="138"/>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="135"/>
+      <c r="C139" s="136"/>
+      <c r="D139" s="136"/>
+      <c r="E139" s="136"/>
+      <c r="F139" s="136"/>
+      <c r="G139" s="136"/>
+      <c r="H139" s="137"/>
+      <c r="I139" s="136"/>
+      <c r="J139" s="136"/>
+      <c r="K139" s="138"/>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="135"/>
+      <c r="C140" s="136"/>
+      <c r="D140" s="136"/>
+      <c r="E140" s="136"/>
+      <c r="F140" s="136"/>
+      <c r="G140" s="136"/>
+      <c r="H140" s="137"/>
+      <c r="I140" s="136"/>
+      <c r="J140" s="136"/>
+      <c r="K140" s="138"/>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="135"/>
+      <c r="C141" s="136"/>
+      <c r="D141" s="136"/>
+      <c r="E141" s="136"/>
+      <c r="F141" s="136"/>
+      <c r="G141" s="136"/>
+      <c r="H141" s="137"/>
+      <c r="I141" s="136"/>
+      <c r="J141" s="136"/>
+      <c r="K141" s="138"/>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="135"/>
+      <c r="C142" s="136"/>
+      <c r="D142" s="136"/>
+      <c r="E142" s="136"/>
+      <c r="F142" s="136"/>
+      <c r="G142" s="136"/>
+      <c r="H142" s="137"/>
+      <c r="I142" s="136"/>
+      <c r="J142" s="136"/>
+      <c r="K142" s="138"/>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="135"/>
+      <c r="C143" s="136"/>
+      <c r="D143" s="136"/>
+      <c r="E143" s="136"/>
+      <c r="F143" s="136"/>
+      <c r="G143" s="136"/>
+      <c r="H143" s="137"/>
+      <c r="I143" s="136"/>
+      <c r="J143" s="136"/>
+      <c r="K143" s="138"/>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="135"/>
+      <c r="C144" s="136"/>
+      <c r="D144" s="136"/>
+      <c r="E144" s="136"/>
+      <c r="F144" s="136"/>
+      <c r="G144" s="136"/>
+      <c r="H144" s="137"/>
+      <c r="I144" s="136"/>
+      <c r="J144" s="136"/>
+      <c r="K144" s="138"/>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="135"/>
+      <c r="C145" s="136"/>
+      <c r="D145" s="136"/>
+      <c r="E145" s="136"/>
+      <c r="F145" s="136"/>
+      <c r="G145" s="136"/>
+      <c r="H145" s="137"/>
+      <c r="I145" s="136"/>
+      <c r="J145" s="136"/>
+      <c r="K145" s="138"/>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="135"/>
+      <c r="C146" s="136"/>
+      <c r="D146" s="136"/>
+      <c r="E146" s="136"/>
+      <c r="F146" s="136"/>
+      <c r="G146" s="136"/>
+      <c r="H146" s="137"/>
+      <c r="I146" s="136"/>
+      <c r="J146" s="136"/>
+      <c r="K146" s="138"/>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="135"/>
+      <c r="C147" s="136"/>
+      <c r="D147" s="136"/>
+      <c r="E147" s="136"/>
+      <c r="F147" s="136"/>
+      <c r="G147" s="136"/>
+      <c r="H147" s="137"/>
+      <c r="I147" s="136"/>
+      <c r="J147" s="136"/>
+      <c r="K147" s="138"/>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="135"/>
+      <c r="C148" s="136"/>
+      <c r="D148" s="136"/>
+      <c r="E148" s="136"/>
+      <c r="F148" s="136"/>
+      <c r="G148" s="136"/>
+      <c r="H148" s="137"/>
+      <c r="I148" s="136"/>
+      <c r="J148" s="136"/>
+      <c r="K148" s="138"/>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="135"/>
+      <c r="C149" s="136"/>
+      <c r="D149" s="136"/>
+      <c r="E149" s="136"/>
+      <c r="F149" s="136"/>
+      <c r="G149" s="136"/>
+      <c r="H149" s="137"/>
+      <c r="I149" s="136"/>
+      <c r="J149" s="136"/>
+      <c r="K149" s="138"/>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="135"/>
+      <c r="C150" s="136"/>
+      <c r="D150" s="136"/>
+      <c r="E150" s="136"/>
+      <c r="F150" s="136"/>
+      <c r="G150" s="136"/>
+      <c r="H150" s="137"/>
+      <c r="I150" s="136"/>
+      <c r="J150" s="136"/>
+      <c r="K150" s="138"/>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="135"/>
+      <c r="C151" s="136"/>
+      <c r="D151" s="136"/>
+      <c r="E151" s="136"/>
+      <c r="F151" s="136"/>
+      <c r="G151" s="136"/>
+      <c r="H151" s="137"/>
+      <c r="I151" s="136"/>
+      <c r="J151" s="136"/>
+      <c r="K151" s="138"/>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="135"/>
+      <c r="C152" s="136"/>
+      <c r="D152" s="136"/>
+      <c r="E152" s="136"/>
+      <c r="F152" s="136"/>
+      <c r="G152" s="136"/>
+      <c r="H152" s="137"/>
+      <c r="I152" s="136"/>
+      <c r="J152" s="136"/>
+      <c r="K152" s="138"/>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="135"/>
+      <c r="C153" s="136"/>
+      <c r="D153" s="136"/>
+      <c r="E153" s="136"/>
+      <c r="F153" s="136"/>
+      <c r="G153" s="136"/>
+      <c r="H153" s="137"/>
+      <c r="I153" s="136"/>
+      <c r="J153" s="136"/>
+      <c r="K153" s="138"/>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="135"/>
+      <c r="C154" s="136"/>
+      <c r="D154" s="136"/>
+      <c r="E154" s="136"/>
+      <c r="F154" s="136"/>
+      <c r="G154" s="136"/>
+      <c r="H154" s="137"/>
+      <c r="I154" s="136"/>
+      <c r="J154" s="136"/>
+      <c r="K154" s="138"/>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="135"/>
+      <c r="C155" s="136"/>
+      <c r="D155" s="136"/>
+      <c r="E155" s="136"/>
+      <c r="F155" s="136"/>
+      <c r="G155" s="136"/>
+      <c r="H155" s="137"/>
+      <c r="I155" s="136"/>
+      <c r="J155" s="136"/>
+      <c r="K155" s="138"/>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="135"/>
+      <c r="C156" s="136"/>
+      <c r="D156" s="136"/>
+      <c r="E156" s="136"/>
+      <c r="F156" s="136"/>
+      <c r="G156" s="136"/>
+      <c r="H156" s="137"/>
+      <c r="I156" s="136"/>
+      <c r="J156" s="136"/>
+      <c r="K156" s="138"/>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="135"/>
+      <c r="C157" s="136"/>
+      <c r="D157" s="136"/>
+      <c r="E157" s="136"/>
+      <c r="F157" s="136"/>
+      <c r="G157" s="136"/>
+      <c r="H157" s="137"/>
+      <c r="I157" s="136"/>
+      <c r="J157" s="136"/>
+      <c r="K157" s="138"/>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="135"/>
+      <c r="C158" s="136"/>
+      <c r="D158" s="136"/>
+      <c r="E158" s="136"/>
+      <c r="F158" s="136"/>
+      <c r="G158" s="136"/>
+      <c r="H158" s="137"/>
+      <c r="I158" s="136"/>
+      <c r="J158" s="136"/>
+      <c r="K158" s="138"/>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="135"/>
+      <c r="C159" s="136"/>
+      <c r="D159" s="136"/>
+      <c r="E159" s="136"/>
+      <c r="F159" s="136"/>
+      <c r="G159" s="136"/>
+      <c r="H159" s="137"/>
+      <c r="I159" s="136"/>
+      <c r="J159" s="136"/>
+      <c r="K159" s="138"/>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="135"/>
+      <c r="C160" s="136"/>
+      <c r="D160" s="136"/>
+      <c r="E160" s="136"/>
+      <c r="F160" s="136"/>
+      <c r="G160" s="136"/>
+      <c r="H160" s="137"/>
+      <c r="I160" s="136"/>
+      <c r="J160" s="136"/>
+      <c r="K160" s="138"/>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="135"/>
+      <c r="C161" s="136"/>
+      <c r="D161" s="136"/>
+      <c r="E161" s="136"/>
+      <c r="F161" s="136"/>
+      <c r="G161" s="136"/>
+      <c r="H161" s="137"/>
+      <c r="I161" s="136"/>
+      <c r="J161" s="136"/>
+      <c r="K161" s="138"/>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="135"/>
+      <c r="C162" s="136"/>
+      <c r="D162" s="136"/>
+      <c r="E162" s="136"/>
+      <c r="F162" s="136"/>
+      <c r="G162" s="136"/>
+      <c r="H162" s="137"/>
+      <c r="I162" s="136"/>
+      <c r="J162" s="136"/>
+      <c r="K162" s="138"/>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="135"/>
+      <c r="C163" s="136"/>
+      <c r="D163" s="136"/>
+      <c r="E163" s="136"/>
+      <c r="F163" s="136"/>
+      <c r="G163" s="136"/>
+      <c r="H163" s="137"/>
+      <c r="I163" s="136"/>
+      <c r="J163" s="136"/>
+      <c r="K163" s="138"/>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="135"/>
+      <c r="C164" s="136"/>
+      <c r="D164" s="136"/>
+      <c r="E164" s="136"/>
+      <c r="F164" s="136"/>
+      <c r="G164" s="136"/>
+      <c r="H164" s="137"/>
+      <c r="I164" s="136"/>
+      <c r="J164" s="136"/>
+      <c r="K164" s="138"/>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="135"/>
+      <c r="C165" s="136"/>
+      <c r="D165" s="136"/>
+      <c r="E165" s="136"/>
+      <c r="F165" s="136"/>
+      <c r="G165" s="136"/>
+      <c r="H165" s="137"/>
+      <c r="I165" s="136"/>
+      <c r="J165" s="136"/>
+      <c r="K165" s="138"/>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="135"/>
+      <c r="C166" s="136"/>
+      <c r="D166" s="136"/>
+      <c r="E166" s="136"/>
+      <c r="F166" s="136"/>
+      <c r="G166" s="136"/>
+      <c r="H166" s="137"/>
+      <c r="I166" s="136"/>
+      <c r="J166" s="136"/>
+      <c r="K166" s="138"/>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="135"/>
+      <c r="C167" s="136"/>
+      <c r="D167" s="136"/>
+      <c r="E167" s="136"/>
+      <c r="F167" s="136"/>
+      <c r="G167" s="136"/>
+      <c r="H167" s="137"/>
+      <c r="I167" s="136"/>
+      <c r="J167" s="136"/>
+      <c r="K167" s="138"/>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="135"/>
+      <c r="C168" s="136"/>
+      <c r="D168" s="136"/>
+      <c r="E168" s="136"/>
+      <c r="F168" s="136"/>
+      <c r="G168" s="136"/>
+      <c r="H168" s="137"/>
+      <c r="I168" s="136"/>
+      <c r="J168" s="136"/>
+      <c r="K168" s="138"/>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="135"/>
+      <c r="C169" s="136"/>
+      <c r="D169" s="136"/>
+      <c r="E169" s="136"/>
+      <c r="F169" s="136"/>
+      <c r="G169" s="136"/>
+      <c r="H169" s="137"/>
+      <c r="I169" s="136"/>
+      <c r="J169" s="136"/>
+      <c r="K169" s="138"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K76" r:id="rId1"/>
+    <hyperlink ref="K76" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
